--- a/uploads/Business Analyst.xlsx
+++ b/uploads/Business Analyst.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,75 +415,109 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-SENIOR ACCOUNTANT
+INFORMATION TECHNOLOGY (IT) SPECIALIST
 Experience
-Company Name June 2011 to Current Senior Accountant 
-City , State
-Prepare quarterly and annual financial statements for 17 multi-family communities for distribution to investors and financial institutions.
-Reconcile and account for all activity on the income statement and balance sheet including cash, fixed assets, derivatives, equity, and
-property debt.
-Coordinate and review work of external audit firms.
-Initiate capital calls and distributions for investors.
-Manage budgets and construction loan activity for approximately $100,000,000 in active construction projects in FL, MA, and MD.
-Company Name March 2010 to June 2011 Associate Fund Controller 
-City , State
-Performed quarterly and annual close procedures for MSREF (Morgan Stanley Real Estate Funds) 6I, the largest international real estate
-investment fund to date with $8 billion of partnership assets, and draft financial statements distributed directly to fund investors.
-Lead quarterly management fee process by performing work to draft approximately $14,000,000 in bills to fund Partners.
-Develop work plan to ensure deadlines are met, test results, delegate work to other Fund Controllers, and perform detailed review of their
-work.
-Lead MSREF 6I initiative to implement reinvestment of proceeds (ROP) methodology to reallocate approximately $120,000,000 in cash
-to-date amongst investments with deficient cash balances to cover contributions and expenses.
-Write formulas to analyze cash movement in Microsoft Excel and assist four Information Technology Vice Presidents in programming the
-partner capital sub ledger system to calculate the movement and test results.
-Wrote standard operating procedures memo for ROP to train team members.
-Company Name June 2007 to March 2010 Advisory, Forensic and Audit Associate 
-City , State
-Performed research to locate red flags in numerous potential fraudulent mortgages at one of the largest bank failures in U.S.
-history.
-Developed writing skills by drafting over forty memorandums that summarized potential fraud in loans that were presented to multiple
-agencies of the Government.
-Wrote a thirty-five page corporate intelligence narrative explaining personal and Professional relationships of an individual under
-investigation.
-These tasks assisted the FBI in arresting the individual, suspected of orchestrating a two billion dollar mortgage fraud scheme.
-Performed substantive test work, analytical procedures, and testing of controls at multiple audit clients, including leading the sales and
-inventory test work of an international company with approximately one billion in annual sales.
-Audited cash, receivables, investments, inventory, payables, property, debt, equity, revenue, cost of goods sold, and expenses.
-Analyzed audit client's major accounting processes, identified control weaknesses, and recommended solutions and improvements.
-Worked on multiple phases, including fraud investigations and data analytics, of a high profile engagement involving the largest natural
-disaster relief fund in United States history and was the first to analyze, discuss, and research a series of fraud allegations received from an
-anonymous telephone hotline that lead to a new, lasting client relationship with the Federal government.
-Analyzed a series of bank accounts owned by over twenty customers of a large, domestic bank to determine the amount of funds stolen and
-trace illicit transfers made by a bank employee from each account in a multi-million dollar fraud scheme.
-August 2006 to May 2007 Accounting Tutor Sole Proprietorship 
-City , State
-Held private sessions to teach financial accounting to over 25 individual client needs and wrote practice questions which resulted in grade
-improvement amongst all clients, including one who increased his exam performance by 35 percentage points after sessions.
+Information Technology (IT) Specialist 
+January 2012 Company Name
+IT Specialist Project Engineer 
+December 2009 to Current City , State
+U.S.
+Army Information Systems Engineering Command (USAISEC) on projects involving large and complex data networks and
+telecommunications systems while assigned to the Fort Huachuca Engineering Directorate of USAISEC.
+I develop, manage and coordinate the implementation of network communications, local area networks (LANs), visual information systems
+(VIS), and information technology (IT) infrastructure projects.
+As the Project Manager and Lead Engineer, I directed and managed the efforts of a five person Integrated Product Team (IPT) to
+implement the $25 million IT infrastructure for the the new Command, Control, Communications and Computers (C4) facility for the Joint
+Special Operations Command (JSOC) at Ft Bragg, NC.
+Provided daily project coordination and oversaw the development of the IT technical requirements, system design plan and associated
+contract documents and design drawings for the 35,000 sf building.
+Reviewed building construction design drawings, consolidated design change input requests from the customer and team members, and
+provided justification for the proposed design changes and building modifications to ensure that the IT infrastructure was installed according
+to technical specifications, applicable security standards, and customer requirements.
+requests for building design changes to the US Army Corps of Engineers (USACE).
+and provided technical oversight of the project.
+Represented JSOC and ISEC in project meetings with the USACE and other project stakeholders for technical requirements, project
+scheduling updates, and to resolve controversial project issues.
+Created the project integrated master schedule (IMS) to identify and manage resources so that all project documentation and deliverables
+were developed accurately, and to ensure system reliability, operability, and maintainability.
+In support of the Army Base Realignment and Closure (BRAC) process, performed duties as the project coordinator for the $19 million
+BRAC mandated Army Central Command (ARCENT) Headquarters relocation.
+As the ARCENT relocation project leader, identified and analyzed requirements, assigned and reviewed work and exercised full control
+over the planning, development, and implementation of all assigned tasks for the Integrated Product Team (IPT).
+Obtained contract engineering services by developing the Acquisition Requirements Package (ARP), and participated in Source Selection
+Evaluation Board (SSEB) activities.
+Prepared statements of work (SOWs), procurement data packages, and evaluated contractor work performance and provided the monthly
+performance report to the contracting office and weekly project status updates to ISEC management.
+Provided financial and resource planning, execution, and tracking; to include manpower, temporary duty (TDY), and other acquisition
+resource requirements.
+Judiciously expended project resources, determined priorities and worked within resource allocation limits, fiscal law and existing policy.
+Completed all required contract modifications, List of Materials (LOMs) and Major Item List of Materials (MILOMs), as well as
+independent government cost estimates (IGCEs) as required.
+Integrated various IT sub-systems based on system dependencies, technical adequacies, and customers' need.
+Conducted technical reviews of proposed test plans and monitored the System Acceptance Testing (SAT) of all IT and VIS systems and
+proposed solutions to faults identified in the SAT to ensure continuity of new and existing systems and compliance with user requirements.
+Systems Integration Analyst 
+July 2009 to December 2009 Company Name ï¼​ City , State
+Supervisor: Randy Devine - (520) 459-3174.
+Systems Integration Analyst responsible for contract Information Technology (IT) engineering services in support of the US Army
+Information Systems Engineering Command (USAISEC).
+Developed the Facility Design Criteria (FDC), System Design Plans (SDPs), Engineering Installation Packages (EIPs), List of Materials
+(LOMs) and other acquisition documentation for complex IT projects according to user requirements.
+Worked with Government and sub-contractor personnel and provided guidance and oversight on project document development and
+validation for the U.S.
+Army Forces Command (FORSCOM) and U.S.
+Army Reserve Command (USARC) BRAC relocation.
+Provided engineering, procurement, installation, cutover and testing requirements for the High Frequency (HF) and Ultra High Frequency
+(UHF) Radio Systems and antennas in support of a Command, Control, Communications, Computers and Intelligence / Information
+Technology (C4I/IT) systems project.
+Reviewed project documentation and ensured contract deliverables were complete and delivered accurately and on time as specified in the
+Acquisition Requirements Package (ARP).
+April 2001 to September 2009 Company Name
+Functional Area Expert (Command and Control)Sierra Vista, Arizona Supervisor: Robert Kessler - (520) 417-0959.
+Communications Engineer supporting the U.S.
+Army Information Systems Engineering Command (USAISEC) by providing IT engineering services in the form of quick reaction
+engineering to Engineer, Furnish, Install, and Test (EFIT) total communications functionality at multiple Command and Control (C2)
+facilities.
+Provided QA / QC checks and Acceptance Testing on various projects involving C2 facility upgrades as well as Command Headquarters
+relocations.
+Provided IT engineering support for the US Southern Command (SOUTHCOM) headquarters relocation project, to include developing the
+FDC as part of the design-build contracting process for the USACE.
+Developed the SDP, LOM, cost estimates and test plans for the radio and satellite systems, copper and fiber cable plant, lightning
+protection systems, grounding, bonding and shielding systems and related infrastructure for the Defense Threat Reduction Agency (DTRA)
+relocation project.
+Provided on-site engineering support for the voice, data, and visual information systems being installed for the United States Army South
+(USARSO) Headquarters and the Installation Management Agency (IMA) at Fort Sam Houston, Texas.
+Provided detailed engineering for the design and installation of Briefing and Display Facilities (BDF), Conference Rooms, Command Center
+Areas, Telecommunications Rooms (TRs), and Open Office Areas.
+Conducted QA / QC checks and testing for a Defense Red Switch Network (DRSN), Global Command and Control System (GCCS),
+Unclassified Local Area Network (NIPRNET), Secret Local Area Network (SIPRNET), Sensitive Compartmented Local Area Network
+(SCI LAN), Administrative Telephone System, and Visual Information Systems.
+Assisted USAISEC Force Projection Engineering Directorate, and 1st Signal Brigade personnel in the design and installation of a C2 facility
+upgrade at the 19th Theatre Support Command in South Korea.
+Performed site surveys, gathered user requirements from several staff directorates and operational elements within the command and
+developed an SDP, EIP and LOMs to upgrade the Global Command and Control System (GCCS) communications systems as well as the
+administrative and tactical voice systems.
+Provided engineering support for the development of the C2 facility for the U.S.
+Army Central Command (USCENTCOM) Headquarters and foreign coalition forces in Doha, Qatar in support of Operation Iraqi
+Freedom.
+These efforts included various secure voice, data, and visual information systems critical to the Command Center operations.
+Supervised and assisted with the routing, termination and acceptance testing of all fiber optic and Cat5 cabling, voice and data systems and
+related telecommunications equipment and infrastructure.
 Education
-EMORY UNIVERSITY, Goizueta Business School 5 2007 Bachelor of Business Administration : Accounting City , State GPA: GPA: 3.63/4.0
-GPA: 3.77/4.0 Accounting GPA: 3.63/4.0 GPA: 3.77/4.0
-Interests
-Fulton County CASA Board of Directors Member, Treasurer. Plan fund raisers, review budget and financial statements, and supervise CASA
-staff in not-for-profit organization that trains volunteers to mentor children being pulled from their homes through the Fulton County court system
-for abuse and neglect. CPA, Hold an active Georgia license and scored between 87 and 93 out of a possible 99 on each of the four sections of the
-CPA exam. CFE, Certified Fraud Examiner, which
+Bachelor of Science (BS) : Information Technology , 2005 University of Phoenix GPA: GPA: 3.67 Information Technology GPA: 3.67
+Associates of Applied Science (AAS) : Electronic Technology , 2003 Cochise College GPA: GPA: 4.0 Phi Theta Kappa Electronic Technology
+GPA: 4.0 Phi Theta Kappa
+Associate : General Studies , 2001 AGS Cochise College GPA: GPA: 4.0 Phi Theta Kappa General Studies GPA: 4.0 Phi Theta Kappa
 Skills
-accounting, balance sheet, budgets, client, clients, derivatives, drafting, equity, financial, financial accounting, financial statements, fixed assets,
-Funds, Government, Information Technology, inventory, investments, ledger, MA, Microsoft Excel, natural, page, payables, processes,
-programming, Real Estate, research, sales, scheme, telephone, writing skills
-Additional Information
-COMMUNITY SERVICE, CERTIFICATIONS AND AWARDS Fulton County CASA Board of Directors Member, Treasurer. Plan
-fund raisers, review budget and financial statements, and supervise CASA staff in not-for-profit organization that trains volunteers to mentor
-children being pulled from their homes through the Fulton County court system for abuse and neglect. CPA, Hold an active Georgia license
-and scored between 87 and 93 out of a possible 99 on each of the four sections of the CPA exam. CFE, Certified Fraud Examiner, which
-requires passing four exams and two years work experience in preventing and detecting fraud. Recipient, 2007 John R. Jones Accounting
-Award. Given annually by vote of Emory University Professors to recognize the top performing senior year student in academia, community
-involvement, and character. Recipient, 2006 Ben Pius Award. Awarded by Emory Professors to recognize exceptional achievements by the
-highest performing junior year accounting student at Emory University.</v>
+Administrative, Analyst, Army, Agency, cable, cabling, Cat5, documentation, Engineer, engineering support, financial, Functional, Government,
+IMS, Information Systems, Information Technology, local area networks, Local Area Network, LANs, LAN, law, Materials, meetings, Office,
+Network, networks, personnel, procurement, project leader, project coordination, QA, quick, Radio, routing, SAT, scheduling, Supervisor,
+surveys, Switch, System Design, Systems Integration, telecommunications, Telephone, Theatre, UHF, Ultra High Frequency, upgrades, upgrade,
+validation, Vista, voice and data</v>
       </c>
       <c r="C2" t="str">
         <v>Business Analyst</v>
@@ -491,104 +525,103 @@
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="str" xml:space="preserve">
         <v xml:space="preserve">
-ACCOUNTANT
+EPIC INFORMATION TECHNOLOGY SPECIALIST
 Summary
-General accounting procedures ***Accounts Payables * Costing ** Billing &amp; Accounts Receivables * Cash Management * Bank Reconciliation
-***Payroll Management * Finalisation of accounts up to Balance Sheet * Accounting Reports Management * Knowledge of L/C Documentation
-* Admin &amp; Secretarial Skills Competencies Proficient in data entry and management * Ability to maintain a high level of accuracy in preparing and
-entering financial information * Ability to work fast and in an accurate manner * Good organizational and analytical skills * Ability to learn and
-adapt quickly to meet changing needs
-Highlights
-Sound knowledge of computer accounting programs such as, I-Travel Financials (ERP), MYOB, Tally, QuickBooks, Xpert, Leap Accounting
-and MS Office applications like Word, Excel, PowerPoint, Outlook and other Internet applications with very good typing speed.
+Seeking a position in the field of Bio-Pharma where I can utilize and contribute my skills in an ingenious manner.
+Skills
+Microbial testing, endotoxin- LAL Test.
+Nano particle Size and Charge analysis by Malveren Nano ZS 90.
+Protein extractions.
+HPLC handling and Chromatography techniques.
+Polymerase chain reaction (PCR) technique.
+EPIC care.
+Experienced in Method development, Method Validation, Method verification and Method transfer of new analytical methods
+Wet chemistry techniques. MS office, Efficient Internet Browsing, SAS programming, EPIC care.
 Experience
-Accountant 
-October 2012 to October 2014 Company Name ï¼​ City
-A Destination Management Company based in Dubai) Job Description: Handled high volume of payments including internal and external.
-Reviewed supplier invoices to ensure that all the information appearing on them is accurate and complete and reconciled their statements
-after sorting queries.
-Maintained listing of accounts payable.
-Monitored accounts aging to ensure payments are up to date.
-Performed day to day processing of payments by cheques, telegraphic transfers, online transfers, etc.
-and ensured that suppliers are paid within the established time limits in accordance with the company policy.
-Overseen daily cash and petty cash transactions and tallying of cash every day.
-Prepared month-end account reconciliations primarily bank, accrual and prepaid accounts and post entries.
-Ensured the confidentiality and security of all financial files.
-Other accounting/finance support as and when required by the management.
-Accountant - Payables / Accounting Clerk 
-April 2011 to October 2012 Company Name ï¼​ City
-A boutique law firm that specialises in the Corporate, Property and construction business sectors) Job Description: Accounts Payables -
-Reviewed invoices to ensure that all the information appearing on them is accurate and complete.
-Verified that payable transactions comply with financial policies and procedures.
-Processed transaction reports (aging, payment, etc.) after data entry.
-Maintained listing of accounts payable.
-Cash Receipts &amp; Petty Cash Expenses - Managed and controlled cash receipts through proper tracking and ensured that the same is
-deposited into bank on a daily basis in order to avoid discrepancies.
-Managed daily petty cash expenses and reconciled the physical cash and advances daily.
-Bank Reconciliation - Monitored Bank transactions daily to avoid any irregularities and also to ease the bank reconciliation thus by keeping
-the book balance up-to-date.
-Accounting Vouchers &amp; Data Entry- Prepared and recorded various vouchers in MYOB software.
-Month end closing and Financial Reports - Maintained Fixed Assets master and run monthly depreciation, passed closing entries and
-provided MIS reports (BRS, CFS, Ageing Reports, Commission Statement, etc.).
-Finalisation of Accounts and Annual Audit - Assisted Finance Manager by preparing relevant B/S and P&amp;L schedules as per auditor's
-requirements for the Finalization of Accounts and Annual Audit.
-Secretarial - Provided secretarial &amp; administrative support to the Finance Manager as and when required.
-Junior Accountant 
-July 2008 to April 2011 Company Name ï¼​ City
-A boutique TMT firm set up in the Middle East to cater exclusively for all legal needs of companies or individuals) Job Description: Handled
-day to day accounts related jobs including but not limited to:- Invoicing - Prepared and sent timely and accurate invoices to clients by email.
-Recorded invoices in the Leap Accounting Software.
-Kept track of Clients' Funds in a separate Trust Account.
-Accounts Receivables - Monitored Receivables regularly and worked with clients and A/R team to increase speed of receivables and
-prevented interruption of service to clients that lead to an improvement in the financial performance of the company.
-Managed receivables activities such as cash application, sending follow-up inquiries, negotiating with past due accounts.
-Worked and resolved customer queries in relation with invoices by communicating with the concerned Fee Earners, participated in weekly
-credit control meeting with the Managing Partner.
-Accounts Payables - Verified suppliers' invoices, reconciled statements and arranged timely and accurate processing of payments in
-accordance with the company's payment strategy, and also arranged advance payments wherever necessary and kept track of it.
-Statutory Payments - Arranged Funds in Advance from clients to pay the statutory payments related to Trademark/Patent/License
-Registration/Renewal before the deadline.
-Payroll - Controlled and updated employee records and processed payroll.
-Petty Cash - Managed daily cash expenses and verified and tallied physical cash balance.
-Accounting Vouchers - Prepared, maintained various vouchers and recorded in Leap Accounting software.
-Financial Reports - Assisted Finance Manager in preparing monthly financial reports.
-Secretarial - Performed other secretarial duties related to the Accounting Department.
-Accountant cum Secretary 
-August 2005 to July 2008 Company Name ï¼​ City
-A General Trading company dealing in import and export of porcelain, melamine and stainless steel cookware, crockery &amp; computers and
-computer peripherals) Job Description: Bookkeeping - Performed daily accounting activities and ensured financial transactions are captured
-in proper accounts in Tally Accounting software.
-Analyzed and reviewed accounting provisions to ensure expenses are promptly regularized.
-Maintained General Ledger, Trial Balance, P &amp; L A/c and Balance Sheet.
-Purchasing and clearance of shipments - Placed local and overseas purchase orders under supervision and coordinated clearance of Import
-Shipments and arranged payments through cheques, bank transfer, documentary collection, letters of credit, etc.
-Costing: Ascertained various costs to calculate the sales price of the products.
-Sales - Actively supported company sales team and coordinated sales details and ensured deliveries were carried out as agreed with
-customers.
-Invoicing - Timely preparation and dispatch of invoices and monthly sales analysis as well as sales reports.
-Cash Management - Managed cash receipts and petty cash expenses.
-Letter of Credit - Assisted in opening of L/Cs, review and follow up on opened L/Cs.
-Bank - Monitored bank transactions daily and performed bank reconciliation.
-Finalisation of Accounts &amp; Annual Audit - Provided monthly and annual Financial Reports to management and liaised with the Auditors.
-Administration - Provided administrative and secretarial support in order to ensure the effective and efficient office operations.
-Liaised with Banks, Insurance Agencies, Creditors and Customers as part of day to day operation.
-Education
-M.Com (Master of Commerce) University of Kerala India
-B.Com (Bachelor of Commerce) Mahatma Gandhi University ï¼​ State , India
-Certifications
-Personal Profile Nationality : Indian ******Driving License : UAE Visa Status : Husband's Sponsorship ******Languages known : English,
-Hindi, Malayalam Availability : Immediate
+04/2017 to 06/2017
+EPIC Information Technology Specialist Company Name ï¼​ City , State
+Supported physicians and nurses with updating work list and flowsheet information.
+Provided instructions to staff on the use of EPIC Care.
+Provided support during the go-live.
+Nanotechnology THz biological imaging.
+01/2016 to 11/2016
+Research Associate Company Name ï¼​ City , State
+Study of Tera Spectra and Tera imaging.
+Analytical testing and method development and method validation.
+THz imaging for nanotechnology: The relationship between nanotechnology and THz is bidirectional, in the sense that the concurrent
+developments can contribute to both technologies.
+THz modalities have helped the expansion of nanotechnology.
+Maintenance and Calibration of Analytical Instruments such as HPLC, UPLC, UV, FT-IR, Dissolution apparatus, pH meter and analytical
+balances.
+Nanotechnology could help in the development of high-resolution, sensitive and portable detectors and new efficient sources for THz
+imaging purposes.
+Capillary electrophoresis (CE) methods used in submillimeter diameter capillaries and in micro and nanofluidic channels.
+Performed the Biotechnology techniques cytogenetics and PCR methods.
+Created Standard Operating Procedures (SOP) for instrumental analysis.
+Fundamental lab procedures including pipetting, buffer preparation, weighing.
+Recorded laboratory data and graphed the results to identify significant variations.
+Prepared reports complying with FDA, ISO, cGMP and internal regulations; and coordinated material, instrument and process validations.
+Maintained lab set up by ordering common supplies and chemicals.
+Titanium dioxide nanoparticles with blank terahertz scanning reflectometer.
+11/2013 to 12/2015
+Company Name ï¼​ City , State
+Determine their thickness profile.
+Analytical testing and method development and method validation.
+Confirming the ability of this technique to resolve small variations in Ti02 layer thickness and consequently adsorption.
+Capillary electrophoresis (CE) methods used in submillimeter diameter capillaries and in micro- and nanofluidic channels.
+Chromatographic techniques (GC).
+Developed new analytical methods based on testing results.
+Created Standard Operating Procedures (SOP) for instrumental analysis.
+Performed a variety of technical laboratory functions in the operation and maintenance of laboratory equipment calibrating.
+Prepared reports complying with FDA, ISO, cGMP and internal regulations and coordinated material, instrument and process validations.
+Maintenance and Calibration of Analytical Instruments such as HPLC, UPLC, UV, FT-IR, Dissolution apparatus, pH meter and analytical
+balances.
+Fundamental lab procedures including pipetting, buffer preparation, weighing.
+Essential to develop a new compound of antibiotics.
+12/2010 to 04/2012
+Research Associate Company Name ï¼​ City
+Isolation, identification, Bioprocessing and characterization of secondary metabolites from the soil screened microorganism.
+Screening of soil actinomycetes from the different soil samples.
+Taxonomical studies for antibiotic producing isolates.
+Morphological and cultural characterization.
+Total genomic DNA isolation &amp; PCR &amp; Cloning of polyene CYP gene (cytochrome P-450 hydroxlase).
+Bioprocessing for antibiotic production.
+Biological activity such as Antimicrobial activity, cytotoxic activity, Genotoxic activity.
+Research will be constant requirement for new antibiotic compounds to overcome the resistant capacity in microorganisms.
+Fundamental lab procedures including pipetting, buffer preparation, SDS-PAGE, tissue culture, RNA/DNA manipulations.
+Achievement.
+GOLD MEDAL for securing highest marks in Master of Pharmacy, JSS College of Pharmacy.
+Awarded cash price for M.
+Pharm Dissertation work by "TAMILNADU PHARMACEUTICAL WELFARE TRUST", 2013 Seminars/Workshops attended.
+Participated in "Indo-European Symposium on Alternative Approaches to Animal Testing" on Dec.8, 2010 at JSS College of Pharmacy,
+Ooty.
+Participated in "national workshop on potentials of medicinal plants of Nilgiri Biosphere reserve" on December 8-10th, 2011 at JSS College
+of pharmacy, Ooty.
+Indian Pharmaceutical Student Congress-2009 held in Bangalore.
+Indian pharmaceutical congress-2011 held in Bangalore.
+Experimental skills.
+Basic Biotechnological experiments (in-vitro and in-vivo).
+Skillful in handling cell-lines.
+Mammalian Cell Culture).
+Aseptic handling of Micro-organism.
+Electrophoresis Gel-documentation Techniques.
+DNA isolation and RNA/DNA/protein extractions.
+Operational knowledge of analytical instrumentation like HPLC, GC, LC/MS, UPLC, TLC,.
+FTIR, UV-VIS spectrophotometer, and KF coulometer,.
+Wet chemistry techniques.
+Education and Training
+August 2012
+Master of Pharmacy : Bio Technology JSS College of Pharmacy ï¼​ City India Bio Technology 3.80/4.0
+May 2010
+Bachelor of Pharmacy Kakatiya University ï¼​ City India 3.60/4.0
 Skills
-Accounting, Accounting Software, Accounts Payables, accounts payable, Accounts Receivables, accrual, administrative, administrative support,
-Trial Balance, balance, Balance Sheet, bank reconciliation, Bank Reconciliation, Bookkeeping, book, c, Driving License, Cash Management,
-closing, computer peripherals, Credit, Clients, Data Entry, email, English, ERP, Finance, Financials, Financial, Fixed Assets, Funds, General
-Ledger, Hindi, Insurance, Internet applications, Invoicing, Languages, law, legal, letters, Managing, Excel, MS Office applications, office, Outlook,
-PowerPoint, Word, MIS, MYOB, negotiating, Payroll, policies, Purchasing, QuickBooks, Sales, sales analysis, Secretarial, Sound, strategy,
-supervision, typing speed, Xpert</v>
+Epic go-live, Basic, Biotechnology, Calibration, Cell Culture, chemistry, Dec, DNA, documentation, ELISA, experiments, FT-IR, FTIR, GC,
+HPLC, imaging, ISO, laboratory equipment, MS office, PAGE, PCR, producing, programming, requirement, Research, SAS, scanning, Seminars,
+SOP, Symposium, UV, Validation, weighing, Workshops</v>
       </c>
       <c r="C3" t="str">
         <v>Business Analyst</v>
@@ -596,78 +629,195 @@
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4" t="str" xml:space="preserve">
         <v xml:space="preserve">
-PROJECT ACCOUNTANT
-Professional Summary
-Obtain a position in a professional organization where I can apply my skills and loyalty in exchange for career guidance, training and opportunity
-for advancement.
-Core Qualifications
-Microsoft Office (Word, Excel, PowerPoint, Access). FCR: Online Application for financial transactions.
+INFORMATION TECHNOLOGY AUDITOR
+Skills
+PeopleSoft HCM 8.8/9.x, PeopleSoft Financials 8.8/9.x, PeopleTools 8.51/ 8.54, SQL Developer, MS Office, Visio, MS Project, Dell Stat
+5.6/5.7, SQL Developer, Application Designer, Putty, SharePoint, HP Application Lifecycle Management, Oracle Enterprise Manager, STAT
+Admin, TOAD, Service Now, Remedy, Heat, Oracle E-Business, Asset Suite 8.
 Experience
-July 2012
-to
-December 2013
-Company Name City Project Accountant
-The project funded by USACE- United State Army Corps of Engineers Performed weekly Cash Counts and monthly Bank account
-reconciliations and reports back to the MTN / DC home office project accountant.
-Entered all transactions into the WEBFCR and uploaded backup to the WEBFCR on a daily basis Prepared cash flow projects for
-upcoming months (Cash forecast) and submitted the budget request every month.
-Uploaded all vendor/ contractor invoices to IMS and Ensured all payments are made in a timely manner to vendors and employees.
-Reviewed a limited variety of accounting documents and/or transactions to ensure proper supporting documentation has been submitted.
-February 2011
-to
-June 2012
-Company Name City Subcontract Accountant
-The program funded by USAID- United State Agency for International Development Reviewed all supplier/subcontractor invoices, bill and
-requests for payment transfer from LBG-B&amp;V office to be reviewed and approved by Contract Manager, Task Order Manager and Chief
-of Party.
-Kept track of all sub-contracts documents, all payments confirmations sent from Head Quarter (DC office) and reviewed vouchers for wire
-transfer from Headquarter DC.
-Prepared all vouchers (disbursement, Cash, Bank and Advance journal vouchers) for expenditures and ensured that expenses are
-reasonable, allowable and allocable to the project, and coded all payments by account type using the GL Accounts.
-Preparation of weekly financial reports with Backups and send to HQ.
-Responsible to disbursement of all B&amp;V Cash Payments and Petty Cash, Cash Book, Bank book and other B&amp;V financial Activities.
-June 2010
-to
-November 2010
-Company Name City Administrative &amp; Finance Coordinator
-The project funded by USAID- United State Agency for International Development Organized and preparing technical, administrative and
-financial files.
-Facilitated the lodging arrangements for any visitor, book flights for local and international staff traveling to the field and local transportation
-for international visitors.
-Maintained record keeping system of all office administrative and financial files.
-Handled the sending, receiving and distributing of all correspondence between the Kabul and Washington DC; served as the main point of
-contact for EDC/Washington.
-Assisted in purchasing materials for training workshops and other activities.
-Prepared payments for the procurement of materials, equipment, furniture and stationary for the project on timely basis.
-Prepared monthly and regular reports of Expense Vouchers, Advance Vouchers, and Bank Vouchers.
-September 2006
-to
-May 2010
-Administrative Officer
-CETENA GROUP â€“ Kabul, Afghanistan Developed a filing system, established, and maintained a standard system to ensure Files
-tracking of IED (Improvised Explosive Devices) Project.
-Organized data and information, prepared and maintained records, documents and control plans for the monitoring of IED (Improvised
-Explosive Devices) project.
-Facilitated new/ extend visa for the International Staff, follow-up with the flight booking, confirmation and cancellation and ensured the work
-permits and visa for international staffs were up-to-date.
-Performed other Administration duties.
-Education
-1 2016
-Virginia International University Masterâ€™s in Business Administration (International Business) Expected spring
-1 2012
-Kardan University Bachelor : Business Administration Finance Business Administration Finance
-1 2006
-Capital Institute of Information Technology Diploma : Business Administration Business Administration
-1 2006
-Khurasan High School
+10/2016 to Current
+Information Technology Auditor Company Name ï¼​ City , State
+Participate in the annual risk assessment and audit planning process covering IT, financial, operational, and contract areas.
+Assist with IT audits and reviews including user access, database and service configurations, security, and policy and procedural
+compliance.
+Perform IT project pre and post audit assessments.
+Participate in external cyber related audits and assessments.
+Assist with IT portion of annual assessment of internal controls over financial reporting (Sarbanes Oxley - SOX).
+Includes risk assessment, control walkthroughs, control testing, remediation assistance, report of results to IT management and other
+management, and collaboration with our external financial IT auditors.
+Consult on IT matters within non-IT focused audits and reviews performed internal audit.
+Assist and consult with IT management on upgrades, implementations, and action plans resulting from various audits and assessments.
+Assists and provides support to others auditing the Association as needed.
+Train and educate members of the internal audit team and other personnel on IT audit methods and emerging IT risks.
+Coordinates work of internal auditors when assigned to assist with special/complex audits.
+Adhere to company policies, programs and procedures as well as Critical Infrastructure Protection (CIP), Western Electricity Coordinating
+Council (WECC), Federal Energy Regulatory Commission (FERC), North American Electric Reliability Corporation (NERC), and
+Midwest Reliability Organization (MRO) standards and Equal Employment Opportunity (EEO) laws and regulations.
+04/2015 to 10/2016
+PeopleSoft Security Administrator III Company Name ï¼​ City , State
+Work closely with the internal and external audit department to provide reports and documentation for compliance.
+Perform user access recertification, operational audits, quarterly performance assessments for Segregation of Duty /SOX controls by
+compiling and distributing monthly and quarterly user access reports.
+Provide functional expertise and guidance to developers for technical solutions in modules of PeopleSoft Core Financials, and other
+applications.
+Provision user security for PeopleSoft Financials.
+Ensure that appropriate roles, permission lists, and row level security exists for all functional areas.
+Create new business process flows and functional designs for Enterprise Learning Management requirements.
+Work with the business owners, data owners, end users, and external auditors on fit gap analysis and remediation for process requirements,
+improvements, and recommend best practice solutions.
+Determine the risks associated with the access and highlight any risks to management.
+Obtain report approval from business units and data owners of financial systems for review and user access validation.
+Perform data migrations across multiple environments using Dell Stat 5.6/5.7.
+Streamline and close the gaps of the employee onboarding and termination process.
+Analyze, monitor, and troubleshoot business processes of systems that interface with PeopleSoft Financials.
+Create, analyze and monitor access including creation, deletion and modification of access.
+Coordinate and manage application release processes with various teams.
+Interact with different teams of project managers, developers, quality engineers, peers, and other team members from integration teams.
+07/2014 to 04/2015
+Sr. Application Systems Analyst Company Name ï¼​ City , State
+Worked with business owner to gather and document business requirements and business processes.
+Created and configured Work centers, Dashboards, and Interaction Hubs for HCM,and Financials using PeopleSoft 9.2 PeopleTools
+framework.
+Provisioned user security and functional support for PeopleSoft HR, PS Financials, PS Campus Solutions, and Workday HCM.
+Ensure that appropriate roles, permission lists, and row level security exist for all functional areas.
+Mapped security parameters for PeopleSoft 9.1 to 9.2 upgrade.
+Worked with third party vendors to implement solution.
+Created and maintained documentation of application support and technical environments.
+Performed data cleanup and validation of security roles and permission lists.
+Performed user security role recertification to ensure SOX and Data Privacy assessments.
+Prepared applications for Identity Access Management.
+Identified and resolved application issues effectively and in a timely manner.
+Provided advanced technical application support and troubleshooting.
+Performed service request changes and assigned work accurately and efficiently.
+Supported remote users using Citrix Remote Desktop, Microsoft Lyncs.
+10/2007 to 07/2014
+Sr. ERP Security Analyst/Team Lead/Project Lead Company Name ï¼​ City , State
+As a team lead, was responsible for implementation, troubleshooting, cybersecurity assessments, PeopleSoft user security reviews and
+security support, user system access review, and upgrades for PeopleSoft HRMS, PeopleSoft Financial systems, and Workday HCM.
+Ensure that appropriate roles, permission lists, and row level security exists for all functional areas.
+Responsible for working with stakeholder to gather requirements to bridge the gap between US Oncology (USON) and McKesson
+Specialty Health for the merger.
+Worked with stakeholders to perform comprehensive requirements gathering for onboarding new oncology clinics into the McKesson
+network.
+Gathered the requirements and implemented the change to transfer USON corporate employees to McKesson's PeopleSoft HCM.
+Managed application project initiatives, procurement, and change management; this included impacts to business applications, processes
+and supplier management day-to-day planning, audit schedules, risk management, compliance, and ensuring the team met its required level
+of service for production.
+Responsible for coordinating with IT support teams on major incident management issues using ITIL best practices.
+Performed business processes creation, analysis, and re-engineering.
+Provided specialized training on application functionality.
+Investigated and resolved IT issues and complaints from end users, business owners, and stakeholders.
+Supported and maintained other applications such as IKnowMed EHR.
+Managed and performed change management of security initiatives and business process changes for PeopleSoft HRMS, PeopleSoft
+Financials including Grants, and Workday HCM.
+On boarded new oncology practices; worked with the clients to perform fit/gap analysis to integrate the practices into the McKesson
+network.
+PeopleSoft functions included the creation, and modification of the roles and permission lists, updates to row level security, processes, and
+query security.
+Responsible for the creation, modification and terminations security of users for iKnowMed EHR, PeopleSoft, Oracle, Siebel, and
+additional medical systems.
+Served as a core team member for the EIB uploads, implementation and integration of security and business processes for Workday HCM,
+Payroll, Time Tracking Absence Management and Compensation Modules.
+Provided both technical and functional support for PeopleSoft Financials, PeopleSoft HR, and Workday HCM.
+Actively provided PeopleSoft security subject matter expertise to the internal audit team to assist in evaluating the adequacy and
+effectiveness of application controls monitored annually.
+Maintained security documentation including migration requests, security component and object standards and definitions, and weekly status
+reports.
+Created and maintained security admission procedures for each application.
+Managed and generated weekly security reports for security incidents in the Heat incident handling tool to reduce the number of security
+issues and defects and enhance application controls and monitoring.
+Developed and distributed quarterly security audit reports for the business owners' review and signoff.
+Worked with the business owners to identify risk, define business processes, and reduce granting excessive access to users.
+Coordinated business owner process approvals and authorization for requisition approvals, invoice approvals, employee time approvals,
+and user provisioning.
+Participated in change management meetings to add value through perspective and awareness of impacts to operational changes proposed.
+Contributed ideas for building efficiency within the department and business units.
+04/2007 to 10/2007
+Manager Company Name ï¼​ City , State
+Managed and assisted in development of major incident management procedures to be followed by IT staff in resolving network related
+issues.
+Served a key role in the Remedy implementation project; this included the installation and creation of data structure requirements and value
+data population in the new Remedy incident handling tool.
+Created a Change Management strategy and established reinforcement mechanisms and celebration of success.
+Developed and maintained a network infrastructure that met all service level requirements and provided additional capacity for growth.
+Applied a structured ITIL major incident management and change management approach and methodology.
+Identified potential people-side risks and anticipated points of resistance; developed specific plans to mitigate or address the concerns.
+Provided the documentation, tracking of potential gaps and risks, and status of mitigation steps to reduce these risks.
+Conducted readiness assessments, evaluated results and presented findings.
+Developed a set of actionable and targeted change management plans - including communication plan, sponsor roadmap, coaching plan,
+training plan and resistance management plan.
+Supported the execution of plans by employee-facing managers, business leaders, and stakeholders.
+Conducted active and visible coaching to change sponsors' executive leaders.
+Created and managed systems metrics to track adoption, utilization and proficiency of individual changes.
+Identified resistance and performance gaps, and worked to develop and implement corrective actions.
+03/2006 to 04/2007
+Lead Client Security Analyst Company Name ï¼​ City , State
+Served as the liaison between the business and IT departments supporting global accounts for companies located all over the world.
+Worked with developers to implement changes in production.
+Led a team of five employees including first level support located in Gurgaon, India to provide production security issue resolution.
+Met with business team to determine requirements and define new process flows for new teams.
+Gathered requirements for newly created teams and determined which business applications/environments were necessary for proper job
+performance.
+Developed and enforced policy regarding mandatory security procedures.
+Documented functional/training procedures and implement changes to security procedures.
+Instituted security policies as dictated by business needs.
+Regularly met with internal and external auditors to perform security walkthroughs and assisted in documenting test plans and mitigating
+findings.
+Ensured SOX/SAS70 audit compliance by performing monthly/quarterly user audits.
+Developed and maintained documentation for audit compliance.
+Performed Business Impact Analysis and Cost/Benefit Analysis for potential tools, applications, hardware, and system solutions.
+Chaired weekly meetings to address various client issues.
+Worked with stakeholders to identify and moderate risks.
+Created new roles, maintained segregation of duties and ensured appropriate access levels for applications maintained across
+product/business lines.
+Structured roles/permissions according to design specifications and user specifications.
+Managed Siebel queues to disseminate, track, and evaluate security requests received by Client Security.
+Implemented modifications to request processes.
+Participated in functional testing.
+Implemented and tested changes to online request processes.
+05/2002 to 03/2006
+Sr. Technical Analyst Company Name ï¼​ City , State
+Coordinated with analysts/programmers to evaluate, modify, test, debug, and maintain applications.
+Performed parallel testing and functional testing during PeopleSoft upgrades.
+Administered PeopleSoft security to create, modify, and delete the security of users.
+Diagnosed and resolved software issues and defects.
+Accurately interpreted and fulfilled customer requirements to achieve customer satisfaction.
+Provided third level end user support.
+Worked with network and application support team to resolve technical issues.
+Created and maintained support roles and permissions lists based on functional specifications and security requirement requests.
+Identified and managed problems, determined root cause, and initiated corrective action and risk mitigation where applicable.
+Provided support for AS/400 Mainframe, E-Procurement, PeopleSoft, VPN connectivity, Blackberry, and other applications.
+Documented new/existing functional processes and procedures, as well as created knowledgebase articles related to previously
+undocumented resolutions.
+Worked on business process re-engineering initiatives.
+Established and maintained cooperative working relationships and an effective system of communication within the organization.
+Developed training and technical documentation and performed end user training.
+Facilitated weekly continuous improvement meetings with business users to identify enhancement requests and production support issues.
+Participated in weekly production support meetings with IT.
+Maintained issue and development task list documentation and status reporting on issues and enhancement requests of business users.
+02/2000 to 09/2001
+Systems Infrastructure Analyst Company Name ï¼​ City , State
+10/1999 to 02/2000
+Technology Service Consultant Company Name ï¼​ City , State
+Education and Training
+B.B.A : Management Information Systems University of Houston Management Information Systems
+2010
+Certified Information Systems Auditor (CISA) Certification
+- 1085531 *Legacy MCSE, CCNA, and Novell certified *Delta Sigma Pi Business Fraternity *Agrium Women's Leadership Group
 Skills
-accounting, accountant, administrative, Army, Agency, backup, book, budget, Business Administration, cash flow, contracts, DC, documentation,
-filing, financial, GL, home office, IMS, International Business, materials, Access, Excel, Microsoft Office, office, PowerPoint, Word, procurement,
-purchasing, receiving, record keeping, transportation, type, workshops</v>
+Streamline, approach, AS/400, audit reports, auditing, business owner, business process, business processes, business process re-engineering,
+CCNA, Change Management, CISA, Citrix, coaching, hardware, continuous improvement, Council, Client, clients, customer satisfaction,
+database, Dell, documentation, E-Business, Financials, Financials 8.8, Financial, financial reporting, functional, Grants, HP, Hubs, HR, Information
+Systems, internal audit, IT management, IT support, ITIL, Leadership, team lead, Mainframe, meetings, Access, MCSE, MS Office, MS Project,
+SharePoint, migration, Enterprise, network, Novell, Oncology, Oracle Enterprise Manager, Oracle, Developer, Payroll, PeopleSoft HRMS,
+PeopleSoft, PeopleSoft 9.1, PeopleSoft 9.2, PeopleTools, PeopleTools 8.51, personnel, policies, processes, Procurement, quality, re-
+engineering, reporting, requirement, requirements gathering, risk assessment, risk management, Sarbanes Oxley, SAS, Siebel, Sigma, SQL,
+strategy, Structured, supplier management, user support, user training, technical documentation, TOAD, troubleshoot, troubleshooting, upgrades,
+upgrade, validation, VPN, Visio, articles</v>
       </c>
       <c r="C4" t="str">
         <v>Business Analyst</v>
@@ -675,67 +825,72 @@
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" t="str" xml:space="preserve">
         <v xml:space="preserve">
-ACCOUNTANT
+INFORMATION TECHNOLOGY (INTERNSHIP)
 Summary
-15 Years of experience in Account receivable and Account payable field and other related accounting functions. STRENGTHS: . Detail oriented
-with ability to maintain high level of quality. . Excellent written and verbal communication skills and able to prioritize. . Able to identify, and define
-problem and take corrective measures. . Trustworthy, ethical, hardworking, and meet deadlines. . Ability to work effectively in team and
-independently. . Flexible and adaptable, willingness to learn new skills, and accept new tasks. . Ability to maintain confidentiality at all times.
-Articulate [Job Title] driven to succeed. Strategic planning and client relationship management expert. [job title] with more than [number] years of
-experience planning, developing and implementing [program or process] . Creative professional with extensive project experience from concept to
-development. Talents include [areas of expertise] . Analyst with extensive experience in [Fields] . Proficiencies include [Skill set 1] and [Skill set 2]
-. [Job Title] with background as [Job Title 1] and [Job Title 2] looking to join a growing entrepreneurial organization as part of the Executive team.
-Results-oriented, strategic sales professional with [Number] years in the [Industry] industry. Articulate [Job Title] driven to succeed. Strategic
-planning and client relationship management expert. [job title] with more than [number] years of experience planning, developing and implementing
-[program or process] . Creative professional with extensive project experience from concept to development. Talents include [areas of expertise] .
+MBA graduate specialized at a Business Management of the industries institution which crosses the fields such as healthcare, and IT to compare
+the optimal practices between the major players. To obtain an analyst position, utilize professional Skill and Knowledge in business. Preferably in
+business analyst.
 Skills
-Results-oriented
-Results-oriented
-Operations management
-Client-focused
-Excel in [areas of expertise]
-Proficiency in [area]
+Language: Chinese, English and Japanese
+Professional Skills:
+Microsoft Office, Excel, Power Point, Word, Outlook, SQL,
+Adobe Suit, Flash, Photoshop, Illustrator,Â 
+3D MaxÂ 
+Others: PHP, Java, C#, Visual Basic, HTML, Cording, Programming, Customer relationship management (CRM) ERP System, RFID, E-
+Commerce, Electronic Product Code (EPC) Financial Accounting, Human Resources, (HR) Business Marketing, International Trade
+(Import and Export) App Development SEM, analysis, QMS Statistics, Healthcare.
+?
 Experience
-Accountant Company Name ï¼​ City , State
-Conducted analysis to address [issue] which led to [positive outcome] . Increased sales by 17% over a two-year period. Provided onsite
-training. Monitored multiple databases to keep track of all company inventory. Successfully led key projects which resulted in [positive
-outcome] . Checked the E-_mail every day and responded, written interaction with brokers, bank, treasury operations, and within the
-financial department.
-Documented receipt of data and checks received and documents and evaluates results and finalize utilizing the accounting system.
-Deposited all checks received in financial department to the bank on a daily basis, and maintained log for further verification and follow up.
-Handled all cash receipts, wire transfers ,and ACH, entered in accounting system, and distributed to accountants for cash applications.
-Prepared journal entries for foreign wire transfers and foreign cash receipts and send processes through treasury operations.
-Generated cash receipt journal on daily and monthly basis, and maintain files with supporting documentation in accordance with company
-policy and for auditing purpose.
-Investigated and cleared any outstanding accounts receivable through bank, treasury department for yearend closings in smoothly and timely
-manner.
-Communicated to brokers, bank, treasury operations and accountants for any discrepancies through phone, E-mail, and correspondence
-and rectified.
-Performed bank reconciliations monthly.
-Resolved and met any queries with in the financial department, and help to clear open cash receipts by providing receipt number and
-supporting documentation in a timely manner.
-Accounts Payable duties:.
-Handled and processed all accounts payable checks through treasury operations and mailed with supporting documentation on a daily basis.
-Recorded all accounts payable transactions, in accounting system and distributed to accountants for cash applications with in the financial
-department.
-Processed all outgoing wire transfers requested by accountants in a timely manner, through treasury operations and entered for cash
-applications.
-Generated cash disbursement journal on a daily and monthly basis, and file with supporting documents for future reference.
-Maintained a log for higher amounts which requires two signatures, and prepared spreadsheet and supporting documentation for further
-analysis of accounting manager.
-Developed and maintained relationship with bank, claims, accounting personnel's, treasury operations for the smooth handling of account
-receivables and payables.
-Take steps to make assigned job accurately and efficiently .
-Education and Training
-Associate Degree , Accounting National Education Center ï¼​ City , State Accounting
-Bachelor of Science degree , Accounting University of Kerala India Accounting
-Skills
-accounting, accounting manager, accounting system, accounts payable, accounts receivable, auditing, bank reconciliations, cash receipts,
-documentation, E-mail, financial, mail, payables, personnel, processes, maintain files, spreadsheet, phone, treasury, written, yearend</v>
+July 2014 to September 2014
+Company Name City , State Information Technology (Internship)
+Examined problems between users and systems.
+Worked at different stations of hospital, including:ER, Registration, Pharmacy, Central Sterile Supplies Department (CSSD), and Medical Supplies
+store room.
+September 2013 to December 2015
+Company Name City , State Business Analyst
+Worked with Tourism Bureau to publish "Taiwan Hot Spring Voucher" in order to promote Taiwan.
+Generated 3K followers Â in Facebook Fan page within 3 months
+Built and designed official website.
+May 2012 to January 2015
+Company Name City , State Chief Executive Officer
+Expand five new business sites, two located at the large- scale department stores in the country
+Planned for cultural events, including Simple Life Festival in Taipei and Shanghai China.
+Launched limited edition custom dress with bloggers, created record sales. 100 customer dresses were sold out within 4 hours.
+Increased sales by 25% in two quarters.
+September 2011 to June 2013
+Company Name City , State Campus Youth E- Service Volunteer
+Planned summer and winter camps for kids who lack educational resources.
+Team lead and Recorder
+Education
+2016
+Metropolitan State University 
+City , State , USA Business Administration and Management 
+MBA
+Master of Business Administration (MBA)Â 
+International Trade
+Organizational Behavior
+Finance and AccountingÂ 
+GPA 3.7?
+2015
+National Taipei University of Nursing and Health Science 
+City , State , Taiwan Information Management 
+Bachelor of Science
+Bachelors of Information Management
+Information Technology
+ERP (Enterprise Resource Planning)
+Recruited to Top 3 Schools based on Academic AchievementÂ 
+2015
+Global Language Institute 
+City , State , USA English 
+English Dialect and Language
+Excelled in English
+Write,Read and Speak English
+Chose to be Graduation Speaker for the Classs
+GPA 3.4</v>
       </c>
       <c r="C5" t="str">
         <v>Business Analyst</v>
@@ -743,61 +898,104 @@
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B6" t="str" xml:space="preserve">
         <v xml:space="preserve">
-ACCOUNTANT
-Summary
-If you need someone who delivers sharp results, I can help. Well qualified and results oriented Accounting Professional with over fourteen years of
-successful experience in positions of increasing responsibility in dynamic entertainment companies. Skilled at training staff in Accounts Payable and
-Receivable and Payroll functions and creating effective teams.
-Highlights
-Windows XP, Microsoft Office (Outlook, Excel, Word), QuickBooks Enterprise 17.0, Timberline, File Maker, POS.
-Accomplishments
-General Ledger Accounts
-Maintained accurate accounts including cash, inventory, prepaid, fixed assets, accounts payable, accrued expenses and line of credit
-transactions.
-Experience
-01/2009 to Current
-Accountant Company Name ï¼​ City , State
-Responsible for all aspects of accounts payable, receivable and payroll.
-Banking liaison: reconciled statements, credit card and additional reconciliations.
-Month end analysis, closing and production of month and year end financial reporting.
-Preparation of monthly commission reports.
-Control and monitoring of complex, high volume Production Petty Cash and daily Cash Report.
-Preparation of 1099-s.
-01/2006 to 01/2009
-Accountant Company Name ï¼​ City , State
-Supervised, trained and managed a staff of four permanent employees, plus interns.
-Oversaw the general accounting department areas: accounts payable, receivable and payroll.
-Banking liaison: reconciled statements, credit card, lockbox and additional reconciliations.
-Month end analysis, closing and production of month and year end financial reporting.
-Preparation of monthly commission reports.
-Control and monitoring of complex, high volume Production Petty Cash process.
-01/2004 to 01/2006
-Junior Accountant Company Name ï¼​ City , State
-Responsible for all aspects of accounts payable and accounts receivable functions.
-Reorganizing and reconciling online based business transactions.
-Bank, credit card and other reconciliations.
-Month end analysis and closing.
-Managed and trained college interns.
-Preparation of royalty reports.
-Preparation of 1099-s.
+ADJUNCT INSTRUCTOR
+Skill Highlights
+Quality Engineering Process Improvement Acceptance Testing Strategic Planning Organizational Development Requirement Assessment
+Coaching &amp; Mentoring Business Intelligence SDLC People Management Team Building Data Analysis Oracle SQL/MS Access Progress RDB
+Power Point Data Warehousing HP Quality Center MS Test Rational software QA and PM templates MS Word/Excel MS Project Visio
+Clarity Software
+Professional Experience
+Adjunct Instructor 
+January 1999 to November 2014 Company Name ï¼​ City , State
+Planning and Strategy 01/2014 - 11/2014 Oversaw and facilitated development, QA and production of monthly metric dashboard
+packages across AIT that illustrates the organization's collective value and overall contribution for senior level reporting and review.
+Successfully led installation of the 1st service request tool for the Planning and Strategy team automating work order processing. Project
+managed Communication, Quality, Risk and Implementation Management following SDLC, QA and Project Management Life Cycles.
+(AIT) Leadership Development Rotation Program 2012 to 2013 Leadership Development Program rotation across Annuities organizational
+and functional departments, focused on hands-on and real scenario exposure to various executive leadership approaches and styles.
+Delivered Quality and cost effective projects utilizing leadership agility, enhanced ability to read organizations and honed skills in strategy
+execution.
+Project managed design, QA, training and implementation of Resource Capacity Management tool for Annuities Marketing Service group
+20 resources. Created, socialized and implemented project charters, project and communication plans and QA artifacts to Business
+Analyst, Developers and stakeholders.
+Designed and developed the process to collect and track $29M in IT-Sourcing Business Case Multi Year Savings. Piloted and socialized
+data collection process and procedures to obtain five Organizational Units executives sign off without issues. The tool and process enabled
+timely, accurate and effective decision senior leadership decisions for strategic planning.
+Designed and project managed the development, QA strategies and implementation of Portfolio Management Database application leading
+four offshore and two onshore resources in planning, execution &amp; monitoring, and project implementation following established SDLC, QA
+and Project Management Lifecycles best practices. This tool captures and reports progress and status of all Annuities Services active
+projects.
+Led acquisition of two Commercial off the Shelf software for AIT, 50% below whole sale by successful negotiation and package order
+reconfiguration. Vendor Management lead for the enterprise procurement of HP's Requirement Management Tool (RMT) and APPTIO
+(Financial SAAS application) by developing and implementing Request for Proposals (RFPs), Master Service Agreements (MSA) and
+Statement of Work (SOW) in collaboration with Prudential Legal and Business and Senior Stakeholders.
+Developed and successfully implemented project charter and project plans for software customization and implementation of APPTIO by
+using approved PM tools including peer reviews and socialization to project stakeholders. Project charter was used to drive technical
+requirements for collaborative work effort between APPTIO and Prudential Annuities.
+Developed traceability matrices and risk based test strategies for reliable analysis with optimized test coverage and prioritized execution.
+Led QA project deliveries and adherence to all Annuities Quality Assurance standards and procedure. Led test efforts on project initiatives,
+working closely with project stakeholders to ensure high Quality deliverables to Annuities Technology Business Partners.
+Collaborated and negotiated development of QA testing infrastructure for Information Management and Business Intelligence (IMBI) QA
+cluster through research, development and incorporation of Business Intelligence Testing Methodology and established QA guidelines for
+Data Warehouse, Data Marts, and ETL (Extract, Transform and Load) projects in line with industry practices. Socialized new IMBI QA
+methodology to business clients and AIT's analysis and development teams. This process became the foundation of testing procedure for
+AIT QA department.
+Developed and governed QA project milestones, QA test strategies, scope test plans, resource allocations and project planning for AIT's
+Information Management and Business Intelligence by design process participation, peer and Quality Control reviews. Oversaw
+development of QA strategies, test plans and test cases to migrate Prudential's Annuity system to newly established Data Warehouse, Mart
+with Cognos as reporting front-end.
+Managed QA validation execution, tracking and governance of Annuities Information Factory data warehouse, the foundation of AIT's
+Business Intelligence infrastructure in QA Organization by leading two onshore and six offshore, from India and Ireland, in design, creation
+and execution of test strategies and test plans in alignment with SDLC and Project Life Cycle.
+Bridged QA SME single point-of-failure gap by developing succession plans and approach though knowledge transfers, documentations
+and trainings.
+Monitored and reported relevant QA metrics for test performance to senior management for though use of charts and graphs for trend and
+analysis. Managed prioritization of production defect resolution, validation and on-time production deployments. Defined, developed and
+standardized production defect resolution infrastructure and processes for the newly formed QA Production Support team.
+Coordinated QA test region management including data refresh and test region trouble shooting though project planning and scheduling,
+working knowledge of test environments, capabilities and user needs. This process improvement resulted to a single point of contact and
+multiple call reduction.
+Engineered and streamlined QA region refresh procedures resulting into a repeatable process implemented in AIT QA department. This
+process reduced test region set-up to 5 days from its usual 9 days set up. Employed automation, batch processing, collaboration and
+negotiations with IT partners to drive success.
+Directed the validation 15 small projects ($50K or less) within 12 months leveraging onshore and offshore staffs following full QA Testing
+Lifecycle.
+QA project led American Skandia and All State data acquisitions and conversions by creating and implementing QA test strategies and
+plans to 12 onshore and 10 offshore consultants, communicating project status through QA metrics. Established and matured Annuities
+Information Technology's automation infrastructure and processes. Developed regression test bed to reduce manual testing effort of
+repeatable process.
+Collaborated in the establishment of the QA Automation infrastructure through proof of concepts, benefits and impact analysis with
+Pramerica offshore team. Established the 1st automation infrastructure using Rational Software and base line regression test bed for
+Prudential's Annuities Technology line of business.
+Reduced database table seeding QA validation by 75% in QA, UAT and Production environment by developing and implementing excel
+macro comparison tools to validate data accuracy.
+Built a Cyclic Redundancy Check automated script that save 4 person hours on each execution by launching 100 application screens that
+executed initiation modules.
+Software Developer 
+January 1996 to January 1998 Company Name ï¼​ City , State
+Software Developer/QA Project Lead, PRODIGY 
+January 1988 to January 1996 Company Name ï¼​ City , State
 Education
-Accounting Phoenix University/US-Florida-Miami Accounting - Present
-2003
-Sheridan Technical Center/US-Florida-Miami Certificate - Bookkeeping Fundamentals
-CUC University /Colombia
-1998
-Bachelor Arts Degree : Business Administration Business Administration
-Reference
-Laurel Harris President at Stellarhead (646) 382-8408
-David Walton Vice president of Operation at Dogmatic (917) 671-6798
-Languages
-Fluent in Spanish
+MS : Computer Science , 1992 University of New Haven ï¼​ City , State , US MS in Computer Science University of New Haven - New Haven,
+CT 1992
+BS : Computer Science , 1985 Fairleigh Dickinson University ï¼​ City , State , US BS in Computer Science Fairleigh Dickinson University -
+Teaneck, NJ 1985 LINKS http://www.linkedin.com/in/josephmueller201
+Certifications
+AIT
 Skills
-General Accounting, accounts payable, accounts receivable, Microsoft office, Outlook, Windows XP, Word, Excel, Quickbooks Enterprise 17.0,</v>
+Qa, Offshore, Annuities, Testing, Team Lead, Database, Qa Validation, Sdlc, Metrics, Project Planning, Qa Test, Qa Testing, Benefits, Excel,
+Production Environment, Rational, Uat, Leadership Development, Project Management, Best Practices, Business Case, Capacity Management,
+Collection, Data Collection, Marketing, Portfolio Management, Procurement, Progress, Project Plans, Proposals, Saas, Software As A Service,
+Sow, Statement Of Work, Strategic Planning, Technical Requirements, Training, Vendor Management, Business Intelligence, Cases, Clients,
+Coda, Cognos, Data Warehouse, Etl, Extract, Transform, And Load, Front End, Front End Design, Front-end, Governance, Ibm Cognos, Life
+Cycle, Qa Methodology, Quality Assurance, Quality Assurance Standards, Quality Control, Sme, Subject Matter Expert, Test Lead, Test Plans,
+Batch Processing, Its, Process Improvement, Scheduling, Instructor, Order Processing, Acceptance Testing, Access, Coaching, Data Analysis,
+Data Warehousing, Ibm Rational Software, Marketing Analysis, Mentoring, Microsoft Project, Ms Access, Ms Project, Ms Word, Oracle, Org
+Development, Organizational Development, Rational Software, Rdb, Software Qa, Sql, Team Building, User Acceptance, Visio, Word</v>
       </c>
       <c r="C6" t="str">
         <v>Business Analyst</v>
@@ -805,36 +1003,105 @@
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B7" t="str" xml:space="preserve">
         <v xml:space="preserve">
-GENERAL ACCOUNTANT
-Summary
-Team-oriented accountant, successful at managing multiple projects and consistently meeting deadlines under Budget forecasting Excellent
-managerial techniques Account reconciliation Strong organizational skills Cash Management Proficient in QuickBooks, Intacct, Financial statement
-reporting Excel, Word
-Experience
-01/2016 to 11/2016
-General Accountant
-Treasury Manager
-Comply365 * Beloit, WI Manage accounting operations including AP, AR, and Payroll/Benefits Assist with monthly/year-end close and
-annual audit Cash Management-produce cash forecast and manage cash flow Assist the CFO with the production of monthly financials,
-management reports, and board packages.
-Maintain confidential information Prepare monthly and annual expense forecasts Analyze costs and revenues to project future trends
-Prepare and maintain Cap Table.
-Staff Accountant Company Name ï¼​ City , State
-Comply365 * Beloit, WI AR-Prepared Client Invoices and researched and resolved collections and billing disputes AP-Processed Invoices
-and researched and resolved billing and invoice issues Reconciled all bank and credit card accounts.
-Processed payroll, electronic deposits and employee pay adjustments.
-Reduced time and costs and increased efficiency by introducing new accounting procedures and software.
-Conducted month-end balance sheet reviews and reconciled any variances.
-Education
-Bachelor of Science : Accounting Upper Iowa University ï¼​ City , State Accounting
-Bachelor of Science : Business Administration University of Illinois Business Administration Champaign/Urbana, IL 2015-16 Director of Finance -
-Hononegah Youth Soccer Association
+BUSINESS SYSTEMS ANALYST I
+Qualifications
+TECHNICAL SKILLS: Business Applications: SAP Web Intelligence, Informatica Data Explorer, MS Visio, MS Project, Rational Rose,
+Business Objects Languages: SQL, UML,C, C++ , Core Java , Perl Web Development: HTML, XML, PHP Operating Systems: Windows
+XP/Vista/7, Linux Databases: Netezza, MS SQL Server 2005/2008, Oracle 9i/10g
+Accomplishments
+Organized workshops for SQL Server 2005 during the technical fest at Mumbai University Active member of Student Council of Asian
+Students at University of Maryland. Interface with the client and multi-disciplinary teams within Merkle (Business Intelligence, Information
+Technology, Database and Data Warehouse Developers) to support the solution delivery process
+Work closely with clients to understand their marketing goals, design their marketing databases, facilitate optimum segmentation and provide
+platforms and reports to measure their marketing ROI.
+Involved in designing and rolling out global marketing databases (North America, Europe and Middle East, Latin America) and thus well
+versed with Customer Data Integration and international data hygiene and standardization concepts. Enable the client to generate reports for
+Measuring ROI, effective channels , successful campaigns and optimum segments , trend analysis etc using tools like Business Objects
+Sound understanding of a projects life cycle, from demand generation to understanding the customer requirement and converting it into
+technical specifications and finally implementing the project. Jusitn: - Served as subject matter expert on marketing data and database design
+for European and Asia Pacific regions Involved the support of client requests such as adhoc reporting and campaign execution. Also
+responsible for identifying gaps in deployed functionality and building necessary new functionality alongwith correcting issues with current
+solution -data integration,data hygiene, cleansing CDI -created marketing programs based on client's requirements -supported existing
+solution on daily basis for any data or functionality issues -supervised change requests from development to implementation and performed
+QA on deliverables before handoff to client Automated Warranty Renewal Campaign Solution Project involved warranty based CRM
+marketing solution enabling warranty specific campaign execution and reporting Responsibilities: -Support of the deployed CRM database
+solution for Latin America region of Fortune 500 company focusing on Public and Large enterprises -Executed marketing programs on a
+weekly basis
+Work Experience
+Company Name Business Systems Analyst I 09/2014 to Current
+Acted as lead BSA on client team to drive consistency and support projects spanning multiple regional databases and support teams
+Primary contact for client, client partners and other stakeholders, managing daily responsibilities associated with delivering multi-channel
+database marketing programs.
+Responsibilities include working with client and other stake holders to understand marketing program objectives and business rules that help
+define the metrics for program measurement
+Partner with the client, client partners and other stakeholders to define campaign audience requirements, program specifications and
+business requirements Project: SMB CRM Marketing Database Solution
+Maintaining global marketing data for advanced targeting and segmentation to drive optimal business results - Gathered and analyzed
+business requirements provided by client to draft detailed project specifications and lead developers through development and QA process
+- Managed primary ownership for creating artifacts like Business Requirement Document and Functional Requirement Documents -
+Performed gap analysis and Root Cause analysis for data issues and functionality and ensured client satisfaction Project: Consumer Global
+Marketing Database Solution
+CRM solution for Latin America region of Fortune 500 High Tech company supporting data integration, marketing program execution,
+reporting and analytics - Led change requests within the cross-functional teams using the defined change management process ensuring
+timely deployment - Analyzed complex client data using Merkle's in-house methodologies and provided recommendations to improve
+marketing programs performance - Created automated processes minimizing the run-time and increased efficiency of database update and
+campaign deliveries Manage overall coordination, status reporting and stability of complex and cross-functional project oriented work
+efforts while continuing to evolve the solution delivery lifecycle to encompass multiple methodologies
+Interacted with development and QA teams to ensure timely delivery of project deliverables while managing project timeline and
+communicating adjustments and issues to program management.
+Responsibilities included creating documentation to detail functional requirements, technical solution design, code review, implementation
+and QA deliverables before handoff to client Project: Dell Financial Services Project is a service provided through Dell that provides credit
+line accounts to Dell customers that qualify. integrated database solution that allows us to use their customer data in Consumer marketing
+campaigns - Led project change requests throughout a full solution lifecycle performing requirements gathering, process documentation, data
+analysis and quality control - Lead solution discovery sessions with client stakeholders as a means to illicit solution requirements -Set up
+data load and automated processing of data extracts on a weekly basis -Responsible for process documentation consisting of Business
+requirements and functional requirements - Source to Target mapping and data dictionary -Designed and implemented email marketing
+campaigns for Canada region as per client's specifications -Created email marketing campaign targeting customers based on credit line
+account information - Reported on campaign attribution, performance, key metrics Interface with the client, marketing vendors, and cross-
+functional teams within Merkle on solution delivery and new project development Perform requirements gathering for change requests and
+maintain all documentation Synthesize complex and sometimes contradictory information into concise, readable, unambiguous written
+requirements at multiple levels of detail Support campaign management process to develop business goals, campaign requirements and
+campaign metrics. Build and maintain client reports relating to data quality and campaign measurement Work with Solution and Account
+Lead to define project scope, level of effort and timeline Work closely with the delivery team (including system software engineers, QA,
+regression test teams, and the product manager) ensure that your clients' solution is created with exceptional quality. - Accountable for
+determining and requesting campaign data elements from creative agencies to build accurate segmentations for targeted educational &amp; public
+relations program deployments Provide input to Project Management regarding schedule, level of effort , project scope Manage client
+communication and expectation setting Lead change requests from initiation to delivery Interface with the client and multi-disciplinary teams
+within Merkle to support the solution delivery process Take direction from Project Management regarding schedule, scope, and cost
+tradeoffs Assist with the delivery of the system into production by designing and supporting the formal client acceptance process, according
+to Merkle's defined standards Accurately document requirements and acceptance criteria for a Merkle Marketing solutions Perform analysis
+of new data for inclusion in a marketing database, and ad-hoc analysis of data in the database to support the requirements process
+Company Name IT Analyst Intern 05/2011 to 12/2011 Assisted IT Admin for managing user access rights, user groups and documentation
+upload on MS SharePoint Analyzed business applications to determine if changes or upgrades are required by business users or processes
+Gathered business requirements and converted them into detailed technical and functional specifications Served as a technical liaison between end-
+users &amp; application vendors to obtain solutions for application issues using HEAT ticketing system Tested vendor solutions and newly modified
+systems to ensure they meet client specifications Generate customized reports using Business Intelligence tools to meet user requirements
+Company Name IT Support 05/2010 to 07/2010 Used Sys-Aid ticketing software for handling service requests from library staff Responsible for
+troubleshooting and maintenance of hardware and software devices Maintained Local Area Network of UM Libraries and performed Ghosting,
+G-Disking processes
+Education and Training
+MS : Information Management University of Maryland MS in Information Management (Dec 2011) University of Maryland GPA 3.67 /4.0
+Relevant Courses: Database Design, Web Enabled Databases (PHP), Information Architecture, Management of Information and Services, Project
+Performance Measurement, System and Software Requirements
+B.E : Computer Engineering Mumbai University B.E in Computer Engineering (May 2009) Mumbai University First Division Specialties:
+Professional Affiliations
+Active member of Student Council of Asian Students at University of Maryland
 Skills
-accounting, AP, AR, balance sheet, Benefits, billing, cash flow, Cash Management, credit, Client, Finance, financials, Director, Payroll, year-end</v>
+Database, Marketing, Systems Analyst, Project Management, Business Requirements, Solutions, Metrics, Qa, Documentation, Accountable For,
+Accounts To, Adjustments, And Account, Basis, Campaign Management, Client Communication, Clients, Consumer Marketing, Credit, Data
+Analysis, Data Quality, Financial Services, Mapping, Marketing Analysis, Marketing Campaign, Marketing Research, Process Documentation,
+Product Manager, Program Management, Public Relations, Quality Control, Requirements Gathering, Topo, Databases, Bsa, Business Systems
+Analysis, Change Management, Crm, Crm Marketing, Customer Relationship Management, Data Integration, Database Marketing, Deployment,
+Gap Analysis, Integration, Integrator, Qa Process, Root Cause Analysis, Satisfaction, Segmentation, Access, Business Intelligence, Functional
+Specifications, Liaison, Microsoft Sharepoint, Ms Sharepoint, Sharepoint, User Access, Writing Functional, C++, Data Warehouse, Front End,
+Front End Design, Front-end, Html, Informatica, Java, Lamp, Lamp Stack, Life Cycle, Linux, Microsoft Project, Ms Project, Ms Sql Server, Ms
+Sql Server 2005, Ms Visio, Mysql, Oracle, Perl, Rational, Rational Rose, Roi, Sap, Sorting, Sql, Sql Server, Sql Server 2005, Subject Matter
+Expert, Technical Specifications, Translated, Uml, Visio, Warranty, Windows Xp, Xml, Ghosting, It Support, Maintenance, Architecture,
+Database Design, Information Architecture, Php, Software Requirements</v>
       </c>
       <c r="C7" t="str">
         <v>Business Analyst</v>
@@ -842,84 +1109,284 @@
     </row>
     <row r="8" xml:space="preserve">
       <c r="A8">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B8" t="str" xml:space="preserve">
         <v xml:space="preserve">
-GENERAL ACCOUNTANT
-Career Focus
-To obtain a position which will allow me to utilize skills I have acquired through my education and work experiences while continuing to expand my
-knowledge. Energetic and motivated student dedicated to providing top-quality patient care. I have ten years of administrative support service with
-five years of that being in a senior position. I work proficiently in a team environment and demonstrate excellent interpersonal skills. I am detailed
-and multi-task oriented and believe that I can efficiently accomplish any task placed before me.
-Licenses
-Basic Life Support (BLS) Certification 2013-Present
-Skill Highlights
-Skilled in conducting physical
-assessment
-Post-operative care
-BLS certified
-Committed to pediatric nursing
-Type 72 WPM
-Computer skills: MS Word/Excel/PowerPoint/Outlook, RIS, Health Connect, Symposium,
-Mainframe, Abraxas, SAP
-Professional Experience
-General Accountant 
-April 2010 to April 2011 Company Name ï¼​ City , State
-Responsibilities: Maintain general ledgers, bookkeeping, generate reports from Dun and Bradstreet, establish credit limits for new
-customers, balance books for end of month closing.
-Medical Biller/Collector 
-December 2009 to April 2010 Company Name ï¼​ City , State
-Responsibilities: Post charges/payments, Maintained patient charts and confidential files, transcription, prepare progress reports for workers
-compensation cases, process liens for liability cases, manage M.D.'s calendars, prepare subpoenas, answer high-volume phones, front desk
-check-in and scheduling.
-Lead of Clerical Services 
-August 2000 to December 2009 Company Name ï¼​ City , State
-Responsibilities: Provide administrative support for senior management, present education/training to all new clerical staff, including cross-
-training for multiple service areas, Maintained patient charts and confidential files., prepare statistical reports for senior management,
-transcribe diagnostic reports, prepare weekly staffing assignments, coordinate calendars and meetings, involvement in interviewing new-
-hires, organize general staff meetings to provide information to all levels of workforce, in addition to minute taking, prepare special handling
-reports, provide performance evaluations for all clerical staff, and prepare invoices from outside facilities. Prepared for HIPAA and JCAHO
-reviews, ensuring required brochures and pamphlets were available to patients in all clinics.
-Education and Training
-Bachelor of Science : Nursing , 2016 California State University, Northridge ï¼​ City , State , USA
-Attendance: 2014-Current
-3.56 GPA
-Associate of Science : Nursing , 2015 College of the Canyons ï¼​ City , State , USA GPA: GPA: 3.77
-Registered Nursing
-Attendance: July, 2008-Current
-GPA: 3.68
-Functional Experience
-Completed 320 hours of clinical work
-Recorded patients' medical history, vital statistics and test results in medical records.
-Monitored post-op vitals, fluids, reviewed post-op orders and orient patients to unit.
-Assisted patients with healing and recovery after surgery.
-Provided education to patients on detox and withdrawal, medications, addiction, recovery, coping skills and community resources.
-Provided necessary health education training for patients.
-Provided behavioral/emotional support and supervision for those with dementia, Alzheimer's, schizophrenia and suicidal ideation.
-Assisted patients with multiple chronic diagnoses including COPD and asthma.Evaluated patient care needs, prioritized treatment and
-maintained patient flow.
-Tested glucose and administered injections.
-Monitored patient's respiration activity, blood pressure and blood glucose levels in response to medical administration.
-Assisted patients with bathing, dressing, daily hygiene care and grooming.
-Patient Advocacy
-Explained treatment procedures, medication risks, special diets and physician instructions to patients.
+VICE PRESIDENT INFORMATION TECHNOLOGY - SOFTWARE ENGINEERING
+Professional Summary
+A results-driven and business minded technology leader with 20+ years of experience in technology and software development. Â A professional
+who is passionate about developing people and teams to reach their greatest potential. A thought leader that partners with business to drive
+strategy from conception to execution. A team player that places a priority on networking, relationship building and diversity to achieve the greatest
+possible outcome. A progressive technology leader with an innovative and growth mindset.
 Skills
-Healthcare: Â 
-Sound, ethical and independent decision-making ability consistent with medical protocols, Patient advocacy, Post-operative care, Medical-
-Surgical experience, Mental Health experience, Operating room experience, patient education, Glucose monitoring, Strong assessment skills
-People skills : Great bedside manner, Enthusiastic people person, Advanced problem-solving, Great organizational skills
-Clerical: Administrative support, Balance, Bookkeeping, Clerical, Closing, credit, Customer Service, Dun, Senior management, Imaging,
-Mainframe, Medical Billing, Medical Transcription, Minute taking, Excel, Outlook, PowerPoint, 2000, MS Word, Nursing, progress, RIS, SAP,
-Scheduling, Staffing, Supervisor, Symposium, Phones, Transcription, Type 72wpm</v>
+People Centered Leadership
+Strategic &amp; Tactical Planning
+Software Engineering
+Designing &amp; Architecting Systems
+Coaching and Talent Development
+Building a Culture of Innovation and Engagement
+Transformation and Change Advocate
+Work History
+Vice President Information Technology - Software Engineering , 03/2018 to Current 
+Company Name â€“ City , State 
+LeadingÂ all aspects of IT Application Development and Corporate Systems teams encompassing 100+ IT associates plus consultants, $20
+m budget, key capital trans-formative projects for the full life-cycle of delivering world classÂ business solutions.
+Supporting company-wide Fit for Growth initiative which focuses on improving customer and associate experience by transforming business
+processes and leveraging modern technology solutions replacing antiquated systems.
+Leading technology transformation focused on re-platforming legacy core systems to a cloud and microservices/containers-based
+architecture running on the AWS platform. Â This allows Safelite IT to deliver business value faster (improved speed to market by ~20%).
+Â Leading implementation of robotic process automation (RPA) by automating manual/repetitive business processes. Anticipated savings of
+$2-$3 MÂ per year.
+Assistant Vice President - Solutions Delivery , 07/2015 to 03/2018 
+Company Name â€“ City , State 
+Defined and executed product vision for Safelite's overall core systems architecture that drives business growth from 5 national contact
+centers, 600+ retail locations, 6000 mobile technicians, 90 warehouses, 2 distribution centers, multiple customer driven responsive web
+applications and customer app engagement tools.
+Drove adoption of agile methodologies across technology teams and business units.Â 
+Built high-performance and autonomous agile product teams that are highly engaged with Safelite's business teams to deliver product value
+for our customers.
+Extended Safelite's core systems to enable the overall OMNI channel vision for Safelite to be able to seamlessly service customers on
+central, unified platform that provides consistent service regardless of customer channel of choice.
+Managed successful delivery of customer engagement initiatives: "watch us on our way" app; Â service emails, 2-way text, text to chat, web
+chat, multi-modal self-service experience, chat bots pilot, IVR via AWS connect, Â personalized promo codes, email campaigns leveraging
+sales force marketing cloud etc.
+Launched "Road to Innovation" program to engage/motivate team members and promote innovation in leading the change and adopting
+emerging technologies to renovate systems and improve customer experience.
+Led architecture and delivery of first ever cloud based end-to-end claim solution to support all types of claims in 5 national contact
+centers.Â 
+Sunsetted legacy AS-400 by moving customer case management tool to sales force service cloud and sales data to BI platform.
+Oversaw the implementation of new enterprise integration platform Mulesoft.
+Director Of Technology , 04/2013 to 07/2015 
+Company Name â€“ City , State 
+Managed successful delivery of web responsive self-serviced digital portals for policyholders, agents, insurance claim/adjusters and cash
+customers.
+Led legacy safelite.com site upgrade to modern web responsive self-service site. Online conversion and self-service usage went up from
+15% to ~60% in 3-4 years.
+Managed the design &amp; implementation of new services layer with restful APIsÂ to enable echo systems for other insurance carriers to
+integrate.Â 
+Led the implementation of end-to-end IVR solution for key insurance partner and API integrations from insurance partner's website for
+glass scheduling.
+Oversaw the implementation ofÂ new inventory management and forecasting systems to Oracle EBS and GAINS.
+Information Technology Manager , 02/2008 to 04/2013 
+Company Name â€“ City , State 
+Transformed Safelite's systems and IT teams for Safelite Solutions, Safelite AutoGlass and Service AutoGlass business units from legacy
+platforms and run-support teams to modern systems and smaller product teams capable of extending needed business functionality and
+supporting Safelite's growth.
+Managed the effort to re-platform legacy point of sale, pricing, scheduling, work order management, and inventory system. Lead technical
+efforts to move to a distributed service architecture using .NET to build applications and WCF services.Â 
+Managed the implementation of new glass claims management system and migrated 200+ insurance carriers glass claim processing from
+legacy mainframe system. Lead designs &amp; architecture to move to a distributed architecture using .NET C#, and SQL server.Â 
+Team Lead , 06/2003 to 02/2008 
+Company Name â€“ City , State 
+Information Technology Consultant , 04/1998 to 06/2003 
+Company Name â€“ City , State 
+Education
+Mini MBA Boston University 
+BS : Electronics And Communications Engineering Anjuman Engineering College - City 
+www.linkedin.com/in/boppanarao
+Affiliations
+2018 Stevie Award Gold Winner - "Watch us on our way" App
+2017 Safelite Solutions Innovation Award - New claims management tool
+2016 Belron Exceptional Customer Service Award - Part Identification
+2015 Safelite Group Customer Driven Leadership AwardÂ 
+2013 Belron Exceptional Service Award - Allstate Integration
+2013 Belron Exceptional Service Award - Customer Self-Service Innovation
+2013 Safelite Group Wall of Fame Award
+2008 Safelite Group Wall of Fame Award
+Skills
+People Centered Leadership
+Strategic &amp; Tactical Planning
+Software Engineering
+Designing &amp; Architecting Systems
+Coaching and Talent Development
+Building a Culture of Innovation and Engagement
+Transformation and Change Advocate
+Work History
+Vice President Information Technology - Software Engineering , 03/2018 to Current 
+Company Name â€“ City , State 
+LeadingÂ all aspects of IT Application Development and Corporate Systems teams encompassing 100+ IT associates plus consultants, $20
+m budget, key capital trans-formative projects for the full life-cycle of delivering world classÂ business solutions.
+Supporting company-wide Fit for Growth initiative which focuses on improving customer and associate experience by transforming business
+processes and leveraging modern technology solutions replacing antiquated systems.
+Leading technology transformation focused on re-platforming legacy core systems to a cloud and microservices/containers-based
+architecture running on the AWS platform. Â This allows Safelite IT to deliver business value faster (improved speed to market by ~20%).
+Â Leading implementation of robotic process automation (RPA) by automating manual/repetitive business processes. Anticipated savings of
+$2-$3 MÂ per year.
+Assistant Vice President - Solutions Delivery , 07/2015 to 03/2018 
+Company Name â€“ City , State 
+Defined and executed product vision for Safelite's overall core systems architecture that drives business growth from 5 national contact
+centers, 600+ retail locations, 6000 mobile technicians, 90 warehouses, 2 distribution centers, multiple customer driven responsive web
+applications and customer app engagement tools.
+Drove adoption of agile methodologies across technology teams and business units.Â 
+Built high-performance and autonomous agile product teams that are highly engaged with Safelite's business teams to deliver product value
+for our customers.
+Extended Safelite's core systems to enable the overall OMNI channel vision for Safelite to be able to seamlessly service customers on
+central, unified platform that provides consistent service regardless of customer channel of choice.
+Managed successful delivery of customer engagement initiatives: "watch us on our way" app; Â service emails, 2-way text, text to chat, web
+chat, multi-modal self-service experience, chat bots pilot, IVR via AWS connect, Â personalized promo codes, email campaigns leveraging
+sales force marketing cloud etc.
+Launched "Road to Innovation" program to engage/motivate team members and promote innovation in leading the change and adopting
+emerging technologies to renovate systems and improve customer experience.
+Led architecture and delivery of first ever cloud based end-to-end claim solution to support all types of claims in 5 national contact
+centers.Â 
+Sunsetted legacy AS-400 by moving customer case management tool to sales force service cloud and sales data to BI platform.
+Oversaw the implementation of new enterprise integration platform Mulesoft.
+Director Of Technology , 04/2013 to 07/2015 
+Company Name â€“ City , State 
+Managed successful delivery of web responsive self-serviced digital portals for policyholders, agents, insurance claim/adjusters and cash
+customers.
+Led legacy safelite.com site upgrade to modern web responsive self-service site. Online conversion and self-service usage went up from
+15% to ~60% in 3-4 years.
+Managed the design &amp; implementation of new services layer with restful APIsÂ to enable echo systems for other insurance carriers to
+integrate.Â 
+Led the implementation of end-to-end IVR solution for key insurance partner and API integrations from insurance partner's website for
+glass scheduling.
+Oversaw the implementation ofÂ new inventory management and forecasting systems to Oracle EBS and GAINS.
+Information Technology Manager , 02/2008 to 04/2013 
+Company Name â€“ City , State 
+Transformed Safelite's systems and IT teams for Safelite Solutions, Safelite AutoGlass and Service AutoGlass business units from legacy
+platforms and run-support teams to modern systems and smaller product teams capable of extending needed business functionality and
+supporting Safelite's growth.
+Managed the effort to re-platform legacy point of sale, pricing, scheduling, work order management, and inventory system. Lead technical
+efforts to move to a distributed service architecture using .NET to build applications and WCF services.Â 
+Managed the implementation of new glass claims management system and migrated 200+ insurance carriers glass claim processing from
+legacy mainframe system. Lead designs &amp; architecture to move to a distributed architecture using .NET C#, and SQL server.Â 
+Team Lead , 06/2003 to 02/2008 
+Company Name â€“ City , State 
+Information Technology Consultant , 04/1998 to 06/2003 
+Company Name â€“ City , State </v>
       </c>
       <c r="C8" t="str">
+        <v>Business Analyst</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9">
+        <v>111</v>
+      </c>
+      <c r="B9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+INFORMATION TECHNOLOGY SPECIALIST
+Summary
+Highly skilled and results-oriented IT specialistÂ with extensive experience in Software Development, Software Configuration Management,
+Project Management, System Planning &amp; Specification Development, CMMI5, Quality Assurance and Testing.Â 
+Highlights
+Process improvement
+Quality assurance and control
+Results-oriented
+Relationship building
+Productivity improvement
+Project development and lifecycle
+Detail-oriented
+Work flow planning
+Experience
+Information Technology Specialist 
+August 2006 to Current Company Name
+Track and control over 150 change requests per month.
+Manage the repository for Software and Customer Requirements Documents, Agreements and Governance Specifications.
+Document and communicate defects and problems with stakeholders and developers.
+Develop and report critical metrics related to CRSMB change request activity.
+Ensure that all activities involved in the software design, coding and testing of the application software have been successfully completed
+before releasing software for independent testing and deployment into the production environment.
+Deploy application software to the Test and Production environments using code management tools.
+Manage logging change requests into the tracking system and assigning work activities to members of the branch.
+Evaluate the adequacy of current CM processes and procedures and make recommendations for CM process improvement.
+Coordinate and communicate with developers, subject matter personnel, stakeholders, database management support and project
+managers.
+Performed platform testing and performance testing during the migration to the Serena Business Management (SBM) system.
+Collaborated in the design of the Serena Business Manager (SBM) Workflow.
+Administrator for the Serena Business Manager (SBM) System.
+Proficiency in working with Serena Version Manager as a software repository, WinSCP and Reflections for the migration and staging of
+application software to the testing and production LINUX environment.
+Maintain the Branch's SharePoint Site, ensuring current documentation and resources are available to the Division.
+Document CM procedures and provide training to new CM staff members, and members of the Division.
+Execute test scripts as needed in the implementation and deployment of software related Test and Production project development.
+Assure that software releases are performed in compliance with established CMMI guidelines.
+Solve technology related issues by researching potential problems and offer a solution in the deployment of software and change request
+tracking.
+Ensure that each CM change request has passed regulated security checks.
+Maintain a well established, well defined, documented, and repeatable processes within standards of Capability Maturity Model Integration
+(CMMI)
+Computer Specialist 
+August 1996 to August 2006 Company Name
+Detailed and refined requirements, wrote algorithms, developed programs and command procedures.
+Developed solutions to improve software performance.
+Enhanced testing procedures.
+Performed software testing, debugging, and validation using internally developed test scripts, test plans, and results criteria.
+Developed and delivered software products.
+Communicated with IT staff and subject matter on project requirements
+Conducted program demonstrations with team members prior to the release of software.
+Performed extensive database testing, automated testing and data validation in support of the MAF/TIGER database's migration to Oracle.
+Developed database test scenarios and supporting software in Pro C and Oracle to validate the migration to the Oracle platform.
+Worked extensively in PL/SQL, SQL, Shell scripting in LINUX, JavaScript, SAS, and Visual Basic.
+Attended meetings with DivisionÂ managers Â to review project status and proposed changes.
+Created status reports and posted to the GEO website for management review.
+Designed and maintained branch website.
+Â 
+Computer Specialist 
+July 1994 to August 1996 Company Name
+Â 
+Designed and developed electronic questionnaires, "instruments", for Computer Assisted Survey Information Collection (CASIC) activities.
+Led meetings withÂ subject matter staff to review project status and proposed changes.
+Met with the subject matter staff and the sponsor on the details and development of the programming specifications, design and testing of
+the CAI.
+Delivered status reports to stakeholders for budgeting and planning purposes.
+Collaborated with program sponsor to draft project schedules and plans.
+Served as the single point of contact for project scheduling and changes.
+Program Manager of the Survey of Inmates of Local Jails.
+Mathematical Statistician 
+February 1988 to July 1994 Company Name
+Â 
+Worked in the Research &amp; Methodology Branch of the Industry Division.
+Worked with team on the statistical methodology for designing a ratio estimation procedure.
+Developed estimation and variance methodologies.
+Developed the sampling frame, and independent probability proportional-to-size sampling (PPS) maintenance of surveys.
+Designedcomputer algorithms for assigning the sampling weights, the nonresponse sample weight adjustment, and calculation of the
+estimates, variances, and relative standard sampling errors.
+Developed computer software needed for survey sample selection.
+Provided programming expertise, assisted subject matter analysts with software and instruments for aiding in data reviews for the many
+annual and monthly surveys.
+Education
+Applied Probabilty and Statistics University of Maryland
+Survey Theory USDA Graduate School
+Master of Science : Urban Regional Planning Indiana University of Pennsylvania
+Bachelor of Arts : Physical Geography Indiana University of Pennsylvania
+Professional Development Training
+Serena Business Manager Composer
+Serena Business Manager Administrator
+Configuration and Release Management Training
+Unix Programming
+Oracle 10G Programming
+Oracle JDeveloper
+Java Programming
+Object Oriented Programming
+Intro to UNIX Systems
+Advanced UNIX
+Learning PERL
+Advanced C Language Programming
+Advanced PL/SQL Programming
+Fundamentals of SAS
+SQL Processing with SAS
+SAS Programing
+Table Processing with SAS
+Output Delivery Systems
+Utilizing VAX/VMS
+Demand Terminal Language
+Package References
+Objects and Modules
+Skills
+Configuration Management, Process Development, Process Improvement, Database Management, Software Development, Software Testing,
+Serena Version Manager, Serena Business Manager, Serena Business Administrator, Reflections, WinSCP, JavaScript, LINUX, Microsoft
+Access, Office, SharePoint, Enterprise, Oracle, PL/SQL, Oracle SQL, C, SAS, LINUX, Visual Basic</v>
+      </c>
+      <c r="C9" t="str">
         <v>Business Analyst</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/uploads/Business Analyst.xlsx
+++ b/uploads/Business Analyst.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,95 +415,83 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-ENGINEERING TECHNICIAN
-Professional Profile
-To obtain a challenging career in Electronic Technology field. Extensive experience successfully testing and analyzing complex circuit packs and
-systems. *Takes the initiative to take on challenging problems and follows through to their resolution. *Capable of working independently or as a
-team player. *Worked with fiber optics receivers and transmitters since 1999.
-Qualifications
-Critical Thinking
-Effective Multitasking
-Deadline Compliance
-Works well under pressure
-Highly responsible and reliable
-Â Establishing goals and setting prioritiesâ€‹
-Team player
-Initiative to work independent
-Experienced in production scheduling
-Excellent problem solving skills
-Troubleshooting at component level
-Schematics reading
-Microsoft Office Suite expert
-Relevant Experience
-Personally managed production activities to guarantee 100 % of orders were shipped on-Time.
-Promoted to Team leader within 4 yearsÂ of employment.
-Planned, directed, coordinated and assigned manpower to efficiently meet production requirements.Â 
-Tracked daily processing reports with 100 % accuracy.
-Cut inventory by more than half and improved on-time delivery to 100 % by reducing the scrap.
-Proudly rated by management as a leading performer.Â Worked with R&amp;D and technical services teams in the execution of experimental
-and pivotal batches.
-Problem Diagnosis
-Used operational knowledge of systems, parts and components to solve problems that arose during assembly.
-Work Experience
-Engineering Technician 12/2014 ï¼​ 05/2015 Company Name City , State
-Tested CWB and analyzed to the component level.
-Work from complex and detailed manufacturing documentation and/or verbal/written instructions.
-Install parts along a moving production line.
-Engage in the practical application of engineering science and technology.
-Thermal Technician 07/2006 ï¼​ Current Company Name City , State
-Â Leads the Thermal Production Line
-Engage in the practical application ofÂ engineering science andÂ  technologyÂ 
-Analyze and interpret blueprints determine and preciseÂ specification
-Work from complex and detailed manufacturing documentation and/or verbal/written instructions
-Apply basic mathematical skills to solve technical problemsÂ 
-Measure dimensions of products to verify conformance to specifications using measuring instruments such as rulers, calipers, gauges and/or
-micrometers
-Handled, measured and mixed chemicals following prescribed methods and testing requirements
-Perform leak checks on vacuum and mechanical assemblies using leak detection systems
-Set up and operateÂ production equipment in accordance with current good manufacturing practices and SOPsÂ 
-Calibrate andÂ Align focal plane arrays,Â  perform video set-up, function test, verify alignment, electrical alignment, MRT, MRC and final
-testÂ forÂ ThermalÂ DevicesÂ 
-Prepare operational reports and provide information to supervisors
-Recommended corrective actions to minimize rate of product defects
-Communicate product and machine failure details to the design team and reliability departmentsÂ 
-Maintain repair status in spreadsheets used in the production department quality review meetings
-Technical Support Specialists 02/1992 ï¼​ 11/2003 Company Name City , State
-Helped achieve company goals by supporting production workers.
-Worked with engineers on troubleshooting issues with the test systems.
-Performed testing and troubleshooting of any/all products including printed wiring boards integrated circuits and systems to meet engineering
-specifications.
-Trained peers on analysis processes getting them up to speed.
-Performed daily analysis routines using established troubleshooting techniques, developing, and implementing new techniques.
-Knowledgeable in the application of advanced electronics theories.
-Collaborated and worked with supervisory, engineering and other functional personnel in conducting special studies and proving in new
-equipment.
-Worked with the engineers in starting up the surface mount line.
-Worked on the HP test sets.
-Troubleshoot field returns using schematics.
-Tuned circuit packs to different wavelengths.
+PARK OPERATIONS HOSTESS
+Summary
+Highly experienced in banking, customer service, data entry, publicity, editing, and a wide range of computer skills
+Software (PC and MAC environments): Computerized cash registers, invoice, scheduling, and inventory software, Microsoft WindowsÂ® and
+Microsoft Word, Excel, OneNote, PowerPoint and Photoshop.
+A strong literary background coupled with up-to-date technological knowledge.
+Highlights
+Software (PC and MAC environments): Microsoft WindowsÂ® and Microsoft Word, PowerPoint, Excel and
+Publisher
+Time management
+Meticulous attention to
+detail
+Excellent communication
+skills
+Strong problem solver
+Multi-line phone
+proficiency
+Filing and data archiving
+Accomplishments
+Data Organization Â 
+Improved office organization by compiling quarterly budget reports, financial spreadsheets, organizational charts and company data reports
+using advanced Microsoft Excel functions.
+Multitasking Â 
+Demonstrated proficiencies in telephone, e-mail, fax and front-desk reception within high-volume environment.
+Customer Service Â 
+Handled customers effectively by identifying needs, quickly gaining trust, approaching complex situations and resolving problems to
+maximize efficiency.
+Experience
+Company Name City , State Park Operations Hostess 09/2014 to Current
+Provide exceptional guest service by greeting and interacting with guests, answering questions and resolving guest issues Ensure safe and
+efficient line speed and crowd flow through park rides and stadiums Operate and monitor ride systems following all company safety policies
+and procedures, including proper loading/unloading of guests and ride evacuations Perform and record guest counts hourly and
+communicate to other departments as needed For special events, staff gates and pathways to direct guests to attractions Assist with park
+emergencies including inclement weather.
+Company Name City , State Activities Associate 02/2014 to 10/2014
+Presenting programs in front of groups of participants of varying ages Assisting in the implementation of various group activities Handling
+reservations and accepting cash and credit card payments Recording inventory of equipment and ensuring that equipment is functional.
+Checking out and returning various equipment for guests Assisted guests with planning their schedules at the resort and recommended
+activities and events based on their needs.
+Senior Publicist for Sharyn McCrumb, New York Times Bestselling Author.
+Company Name City , State Senior Publicist 06/2006 to 05/2014
+Cash and check deposits, process loan expenses and open new accounts Created and developed publicity strategies to drive business goals
+Pitched and secured print media, television, online and radio interviews Developed press materials such as press releases and kits, fact
+sheets and related communication Built and maintained relationships with media personnel Oversaw tours and media events Achievement:
+Hired as publicist; promoted because of demonstrated management skill and innovative ideas.
+Company Name City , State Certified Senior Teller 07/2012 to 05/2013
+Maintained appropriate cash limits, cashed checks, established deposits, and issued cashier's checks, cash orders, traveller's checks, money
+advances, and funds transfers.
+Cash and check deposits, process loan expenses and open new accounts.
+Perform cash management, customer service, balance cash drawer and petty cash management.
+Achievement: Hired as junior teller; promoted because of accurateness, pace, and skills.
+Company Name City , State Manager 04/2004 to 10/2010
+Supervised and trained employees, answered phones, accepted reservations and took payments; was in charge of general care and
+cleanliness of facility.
 Education
-2002 Associate of Science : Northern Essex - Electronic Technology Engineering computer System City , State , USA
-3.7Â  GPA
-Certificate in Microsoft Office
-Graduated Deans ListÂ  
-2004 AssocIate Degree : Hesser College - Paralegal Studies City , State , United States GPA: GPA: 4.0
-Coursework in English, Communications and Writing 
-Legal System training Â of class 
-Affiliations
-Organized a team at Lucent to make the workforce and management work together in order to have better communications, more productive and
-satisfied workforce.
+Bachelor of Arts : English Literature 2010 Roanoke College , City , State , United States GPA: Cum Laude Graduate Cum Laude
+Cum Laude English Literature Graduate Cum Laude
+2006 North Cross School , City , State
+Certifications
+Certified in Lifeguarding, CPR, AED, and First Aid through the American Red Cross.
+Interests
+2006 Regional Champion, English Speaking Union Shakespeare Monologue and Sonnet competition.
+Languages
+Conversational knowledge of Spanish language. Ability to read and write French and Spanish.
+Professional Affiliations
+Sigma Tau Delta International English Honour Society Member Kappa Delta Pi Honour Society Member President (2010-2011) and founding
+student member of Roanoke College Peace and Justice Association Member of Ruritan Club (Catawba Chapter) January 2004-May 2010
 Skills
-Microsoft office Suite (2013)
-Reading Â Schematics
-Troubleshooting
-Problem solving
-LeanÂ Manufacturing
-Inventory
-Government Â Sell-Offs</v>
+balance, cash management, cashier, CPR, credit, customer service, special events, First Aid, French, functional, funds, inventory, MAC, materials,
+Excel, money, PowerPoint, Publisher, Microsoft Word, personnel, policies, Presenting, press, press releases, print media, Publicist, publicity,
+radio, read, Recording, safety, Spanish, Spanish language, phones, television, Author
+Additional Information
+Honours and Activities 2006 Regional Champion, English Speaking Union Shakespeare Monologue and Sonnet competition.</v>
       </c>
       <c r="C2" t="str">
         <v>Business Analyst</v>
@@ -511,131 +499,556 @@
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B3" t="str" xml:space="preserve">
         <v xml:space="preserve">
-MANAGER ENGINEERING MANUFACTURING SYSTEMS ENGINEERING MANAGER
+BUSINESS ANALYST SR. TECHNICAL BUSINESS ANALYST
+Highlights
+C, C++, core java
+Back Ends : Oracle 9i, 10g, 11gRII,MS SQL Server-2005,IBM DB2
+Computer Tech. : UML
+Web Designing : HTML, XML
+Operating Systems : Windows 9X/XP/2000/2003 Server, Linux Red hat 5, SUSE 11
+Development Tools : Rational Rose, MS Visio, MS Project, Oracle SQL Developer, Crystal Reports, Java Workflow Editor, Eclipse
+Application servers : Jboss , Tomcat5, 5.0.1.GA,IBM Websphere App Server 7.
+Databases &amp; Tools : Oracle 9i, 10g, MS SQL 2008, Oracle Enterprise Manager Console, SQL Developer, Power Builder 9.0
+Bankind Application : Finacle Ebanking Application by Infosys Ltd.
+Accomplishments
+WAYE(World Alliance for Youth Empowerment).
+Completed Yes+ course with advance meditation techniques.
+I hereby declare that all the above information furnished by me is true and correct to the best of my knowledge.
+4.
+Experience
+Business Analyst Sr. Technical Business Analyst Company Name
+SDLC Jul 2011 to Dec 2013 
+Company Name
+Requirement Gathering Requirement Analysis Release management Product management Product implementation role BRS analysis
+Feasibility analysis Vender management Client handling Product Management Highlights: Initiated new projects like mobile devices
+compatibility Key resource for Standard Product Enhancement and Documentation.
+Interacting with Marketing Team to understand market demands.
+Worked actively for "Cloud SFA" project to implement product on cloud technology.
+Market research of competitive products for product enhancement.
+Involved in pre-sales activities for understanding market and product enhancement.
+Involved in "30 Days Implementation Plan" documentation for WSFA.
+Actively involved in complete Software Development Life cycle to manage the project at every phase of SDLC in order to meet business
+requirements.
+Exposure to industry verticals such as Banking, Pharmaceuticals and Healthcare.
+Deciding time lines for UAT, Deployments, Staging movements, Live deployments.
+Working as an Application Owner.
+Online Banking India (Finacle Ebanking Application by Infosys Ltd.) Retail Internet Banking, India version migration from 6.2.3 to 11.0.2
+PDF Statements integration with session validation Service Request module for Domestic and NRI Customers Online Banking International
+Geographies (UK, CA, DE, HK, SG) Funds Transfer (Scheduled, Hot Payments) Service request module (implementation of more than
+100 Service requests) Click to Call Service Generate Password through OTP Tax certificates download (Integration and session validation)
+UI revamp for ICICI Bank UK Responsibilities: Handling RIB for UK, Germany, Canada as an Application Owner.
+Co-ordinate with Business for requirement understanding.
+BRS study, feasibility and Acceptance.
+Discuss the approach with in-house Development team or vendor and get an approval on Cost and timelines.
+Provide an Impact analysis Preparation of System test Cases UAT testing Change management (VSS checkout checkins) Release on UAT
+to Business for testing, acceptance and Sign-Off Co-ordinate with deployment team for Staging movement and Production movement
+Documentations : Approach Document (b) System Testcases (c) Release Doc (d)Live Deployment docs Guide production support team
+for Live issues RCA Co-ordinating with other related teams like UBPS, CDCI, core banking.
+Troubleshooting and Responding to ad hoc exercises and Production issues.
+Handling Level 3(Application owner) escalations for severe Live issues Vendor co-ordination Co-ordinate with Business for Requirement
+understanding and project sign-off Training Received: Information Security: Web / Mobile application threats.
+Projects Implemented at Base Information Management Pvt.
+Ltd.
+Software Implementation Engineer Dec 2008 to Jul 2011 
+Company Name
+Dec 2008 to Jun 2011 
+Company Name
+Base E12 WSFA is a web based sales force automation solution to automate and make the sales process more effective and productive.
+It captures Sales Person's Day-to-day activities and generates useful reports for top management and sales department.
+Customized Solution for - Novartis India Ltd.
+Franco Indian pharmaceuticals 2.
+Project name : Customer Relationship Management (Web Based J2EE) CRM application is used for sale order booking ,tracking , delivery
+for company's products.
+It includes SMS based sales tracking.
+Customized Solution for - Novartis India Ltd. 3.
+Project name : Workflow Applications (Web Based J2EE) Workflow applications include solutions for company's internal use like Cash
+voucher approvals, Capital Expenditure approval process.
+This applications master data is based on SAP masters and transactions.
+So, we built up a Data bridge between our database and SAP database to synchronize the data.
+Customized Solution for - Alkem Labs Roles and responsibilities for all above projects : To communicate directly with the client and gather
+details of requirement.
+Documentation (URS,SRS).
+Designing screen layouts Interact with development team, QC team for effective solution.
+Impact analysis, Gap Analysis documentation.
+Test cases review.
+Application implementation on site.
+Pilot Run and User Acceptance testing.
+Application training, Go Live, Project sign-off.
+Work with end-users to define and execute test scenarios and ensure appropriate end user training.
+Technical Responsibilities: Provide detailed system requirement to client(Hardware/Software).
+Production Server Setup (Windows 2003 Server / RedHat Linux 2.5).
+Database setup (Oracle 10g R2.
+IBM DB2,MS SQL 2005).
+Standard database restore, Master Data preparation.
+Application server installation and configuration(Jboss 5.1.0.GA &amp; Tomcat6).
+Software deployments(ear,war etc.).
+Maintaining Versions and Deliverable.
+Education
+Bachelor of Engineering , Information Technology 6 2008 University of Mumbai Integrated Trading and Manufacturing (ITM,An ERP by Base
+Information) BI Tool : BI Base (Business Intelligence tool by Base Information) Information Technology
+Personal Information
+Comprehensive problem solving abilities, excellent verbal
+Interests
+Passport, Visa Details : Visa: L2 EAD Extracurricular activities : Actively participated in organizing collage events,Industrial Visits, Active member
+and volunteer for
+Languages
+English, Marathi, Hindi.
+Skills
+Go Live, ad, applications master, Approach, automate, automation, banking, BI, Business Intelligence, C, C++, Change management, competitive,
+CA, Hardware, Customer Relationship Management, CRM, Crystal Reports, Client, Databases, Database, delivery, Designing, Documentation,
+Eclipse, Editor, English, ERP, Funds, Hindi, HTML, IBM, DB2, IBM Websphere, Information Security, J2EE, Java, Jboss 5.1.0, Jboss,
+Languages, Linux, Market research, market, Marketing, MS Project, Windows 9, Windows, 2000, migration, Operating Systems, Oracle 9,
+Oracle, Developer, Oracle Enterprise Manager, Oracle SQL, PDF, Power Builder 9.0, Product Management, Rational Rose, Red hat 5, RedHat
+Linux 2.5, Requirement, Retail, Sales, SAP, SDLC, servers, SMS, Software Development, MS SQL Server, MS SQL, SQL, Tax, user training,
+Tomcat5, Tomcat6, Troubleshooting, UML, validation, Visio, Web Designing, Workflow, XML
+Additional Information
+PERSONAL DETAILS: Comprehensive problem solving abilities, excellent verbal
+written communication skills, ability to deal with people diplomatically, willingness to learn team facilitator hard worker. Name : Aaditya
+Vijay Hirurkar Date of Birth : 20th Oct-1985 Sex : Male Nationality : Indian Marital Status : Single
+Passport, Visa Details : Visa: L2 EAD Extracurricular activities : Actively participated in organizing collage events,Industrial Visits, Active
+member and volunteer for</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Business Analyst</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4">
+        <v>27</v>
+      </c>
+      <c r="B4" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+PROJECT ANALYST
 Summary
-Personable Engineering Manager successful at building strong cross sector professional relationships. Manages large and complex projects for the
-heritage ES now MS sector while maintaining high team morale and energy. Skilled mentor and mediator who excels at bringing out the best in
-team members.
+Business Analyst versed in data mapping and user acceptance testing, as well as solving complex problems in high-pressure environments. Excels
+at cultivating, managing and leveraging client relationships.
+Highlights
+Business process improvement
+Business requirements matrixes
+Project management
+Advanced problem solving abilities
+Business systems analysis
+Ability to produce executive level reports and presentations
+User acceptance testing
+Forecasting and planning
 Experience
-Company Name City , State Manager Engineering Manufacturing Systems Engineering Manager 08/2015
-Drafted action plans and led collaboration meetings with functional organization executives to review project status and proposed changes.
-Collaborated with cross-functional teams to draft project schedules and plans.
-Manage a team of 8 direct Manufacturing Systems Engineering (MSE) leads within the Manufacturing Engineering (ME) organization that
-are responsible for developing, maintaining, and integrating web tools to be used by manufacturing, engineering, and business systems and
-processes.
-Provide tactical and strategic IT leadership and coordination for Manufacturing System Engineering tools products, processes, applications
-and technology.
-Support the Manufacturing Engineering directorate with IT activities including strategy development, budget and cost management, product
-and service acquisition and delivery, teaming relationships and communication activities thereby ensuring timely and cost effective delivery
-and customer satisfaction.
-Company Name City , State Manager Engineering Process Initiatives Manager 04/2015 to 08/2015
-Managed a team of 15 direct and dotted line sector-wide process leads with an operating budget of $5M within the Engineering,
-Manufacturing, &amp; Logistics (EM&amp;L) Process Initiatives (PI) organization that are responsible for integrating sector-wide engineering and
-business processes.
-Coordinate process efforts across the sector and facilitate collaboration for consistent, compliant and affordable processes consistent with
-CMMI and ISSO standards.
-Governed the sector wide development and migration efforts from SharePoint 2010 to SharePoint 2013 for Engineering, Manufacturing, &amp;
-Logistics (EM&amp;L).
-Efforts include defining scope of work, financial planning, governance, strategic planning and delivery.
-Manage all aspects of the project plan for successful phased migrations using distributed resources.
-Worked closely with the Enterprise Shared Services team (ESS) to streamline migration plans, communications, and training material for the
-Electronic Systems (ES) sector for SharePoint 2013.
-Company Name City , State Manager Engineering Process Manager 04/2014 to 04/2015
-Managed a team of six sector-wide process leads with an operating budget of $2M within the Engineering, Manufacturing, &amp; Logistics
-(EM&amp;L) Process Initiatives (PI) organization who are responsible for integrating sector-wide engineering and business processes.
-Coordinate process efforts across the Engineering East organization and facilitate collaboration for consistent, compliant and affordable
-processes consistent with CMMI and ISSO standards.
-Defined and coordinated sector-wide migration efforts for SharePoint 2007 to SharePoint 2010.
-Efforts include defining scope of work, financial planning, governance, strategic planning and delivery.
-Managed all aspects of the project plan for successful phased migrations using distributed resources.
-Directed sector wide implementations of knowledge transfer/sharing projects in SharePoint 2010 to include the Reuse Library, Lessons
-Learned, and Idea Exchange.
-Champion existing projects; moving them forward by encouraging innovation, communication, and adoption; as well as developing teams for
-new projects.
-Developed and administered sector wide training classes for SharePoint 2010.
-Delivery includes campus-based and virtually led SharePoint classes containing 15 participants per class.
-Company Name City , State Business Process Analyst 12/2012 to 04/2014
-Planned, monitored, and tracked assigned change request progress for quarterly software development lifecycle release schedules.
-Proactively identify and resolve issues, escalate problems, and facilitate cross-team coordination in support of the Medicare Beneficiary
-Database Suite of Systems (MBDSS), under the direction of the Centers for Medicare and Medicaid Services (CMS) as well as the Social
-Security Administration (SSA).
-Served as a primary resource for interfacing with end users, Information Technology (ITS) staff, and stakeholders to develop and manage
-requirements for mission-critical systems and business needs.
-Articulated written and oral requirements with CMS leaders, subject matter experts, and business partners.
-Participated in process improvement development for monitoring program progress, intervention, and problem solving to meet productivity,
-quality, customer-satisfaction goals, and Northrop Grumman strategic objectives.
-Received the October 2013 Northrop Grumman MBDSS Shout Out Award for managing a complex and difficult change request using
-strong organizational and leadership skills, providing technical support and creative solutions to ensure the work remained on target.
-Company Name City , State Requirements Manager 04/2011 to 11/2012
-Oversaw various IT system development processes to implement the Cultural Knowledge Consortium (CKC) enterprise web based portal
-solution.
-This effort was under the general direction of Army TRADOC G2 with a budget of 3.6mil.
-Maintained continuous alignment of the CKC IT project scope with strategic CKC program business objectives, and make
-recommendations to modify the program to enhance effectiveness toward the business result or strategic intent in support of the
-organizational mission.
-Identified CKC technical and program specific requirements while building credibility, establishing rapport, and maintaining communication
-with stakeholders at multiple levels, including those external to the organization through the development of the CKC Project Charter,
-Project Plan and Functional Requirements Documentation.
-Presented periodic dashboard reports on the current IT project, future collaboration opportunities and client issues on the CKCs enterprise
-web based technical solution to Army TRADOC G2 leadership.
-Company Name City , State Applications Specialist 08/2009 to 02/2011
-Delivered IT support for the physician practice management tool Epic.
-Managing system conversions, deployment, performance tuning, and monitoring of Epic Summer 2009 from Epic Spring 2007.
-Performed organizational business and systems analysis to properly document workflows and execute training plans.
-Review documentation for validity/completeness, authored and participated in overall project documentation for Electronic Health Records.
-Gathered and assessed needs from internal business units; recommended solutions to resolve issues (e.g., process workflow, printing issues,
-and access options); and tested functional specifications for Epic.
-Worked in partnership with multiple departments, management teams, physicians, and personnel in the use of business and clinical
-information systems across the organization while incorporating Electronic Health Record technology.
-Company Name City , State Business Systems Analyst 01/2009 to 08/2009
-Managed a multifunctional team of employees who provided short term SDLC analysis, design, coding, and testing for a centrally hosted
-web solution application for the Norfolk Naval Shipyard while implementing CMMI level 3 best practices.
-Served as the Process and Product Quality Assurance Auditor (PPQA) and Metrics Coordinator.
-Responsibilities included implementing the PPQA process on the team by developing the audit plan, executing audits, documenting non
-compliances and following up on open noncompliance actions.
-Collaborated with user representatives from public shipyards and NAVSEA 04X sponsor to research solution alternatives, define
-requirements for the conversion of the NWEPS application to a web based business intelligence application which included Earned Value
-Management, Strategic Workload Forecasting, Human Resource Management and Quality Performance modules.
-Company Name City , State Information Architect 08/1996 to 01/2009
-Governed focus groups and cross functional project teams to resolve functional and technical processes with the implementation of
-qualitative and quantitative decision support programs for a managed care organization.
-Automated manual processes to drive gains in data tracking/accuracy, workgroup efficiency and profitability.
-Through the use and creation of dashboards and ad-hoc reports using MS Access, Excel, and Cognos, data management strategies were
-implemented that transformed the Medicaid health plan data into actionable information for improving clinical and financial outcomes with
-significant ROI's.
-This process netted an additional $690k in capitation revenue for fiscal year 2009.
-Evaluated and supported development, integration, and implementation of automated business intelligence information systems such as
-Cognos and SAS for Medicaid health plan data through the use of database design, modeling, and management developed streamlined
-procedures that decreased labor time and eliminated redundancies in data management which generated a cost savings of $6K for Fiscal
-Year 2009.
-Created a process for use by external Medicare auditors that resulted in cost avoidance for Optima Health -Government Programs, which
-generated a savings between $40K and $125K in 2009 due to internal vendor review and consulting.
+Project Analyst 
+January 2007 to Current Company Name ï¼​ City , State
+Developed and Produced Weekly/Monthly/Quarterly Business Review Packages for Divisional Executive Team Lead and coordinate
+quarterly business reviews with various business partners Coordinate leadership team meetings by handling meeting logistics, preparing
+agendas, and compiling documents Coordinate Business Continuity Plans for the Region and coordinate with the 12 markets to ensure the
+plans were complete for the market Assist in the planning of department budget and space planning Organize and execute Divisional
+Leadership Offsite meetings.
+Portfolio Management Administrator II, Officer 
+January 2001 to January 2007 Company Name ï¼​ City , State
+Oversees an assigned portfolio of client credit relationships.
+Responsible for administrative aspects of payments, Capital Markets, Syndicated Loans, Treasury Management and Letters of Credit
+Products Proactively monitor portfolio, keeping Officers apprised of impending actions or events to ensure data integrity and effective
+mitigation of risk.
+Act as a liaison between Portfolio Management, clients and various areas of the bank Surfaces and resolves client-related issues Review
+legal documentation for pricing and administrative/operational requirement of the credit.
+Offers pre-closing guidance to ensure operation efficiency and bank compliance Maintain Electronic Credit Files and Compliance Tracking
+System to ensure operation efficiency and bank compliance.
+Monitors and assists in preparation and activities to comply with internal bank audit/control requirements.
+Commercial Custom Analyst 
+January 2000 to January 2001 Company Name ï¼​ City , State
+Handled accounts of major clients in excess of $1MM or million.
+Process loan payments/advances and any needed research or maintenance to loans.
+Provide informative Cash Management Information.
 Education
-Masters of Business Administration : Project Management 2011 NOVA SOUTHEASTERN UNIVERSITY DISS, Attending BRENAU
-UNIVERSITY , City , State , US
-Project Management
-Bachelor of Science : Management Information Systems 2008 NORFOLK STATE UNIVERSITY , City , State , US
-Management Information Systems
-Associate of Science : Business Administration 2002 TIDEWATER COMMUNITY COLLEGE , City , State , US
-Business Administration
+Master of Business Administration : Project Management Keller School of Management Current Project Management
+Bachelor of Business Administration : Business Information System , 1 2006 DeVry University Business Information System
 Skills
-Adobe Captivate, Blackboard, Business Objects, Clarity, Cerner, DOORS, eCHIMP, Eclipsys, EHRs, EPIC, HBOC, MACESS, IDX, I-MAX
-FACET, HEAT, SQL Server 2005, Cognos, ER/Studio, Mini-tab, Oracle, SAS, SharePoint Foundation 2007/2010, SPSS, and pcAnywhere.
-User Level:
-Advanced user of the Microsoft Office suite of software packages to include: Excel, Word, One Note, Outlook, Power Point, Project,
-SharePoint, and Visio.</v>
-      </c>
-      <c r="C3" t="str">
+administrative, budget, Capital Markets, Cash Management, closing, Credit, client, clients, documentation, Leadership, Team Lead, legal, Letters,
+logistics, Lotus Notes, market, meetings, Access, Excel, Microsoft Exchange, Microsoft Office, Microsoft Outlook, PowerPoint, Word,
+Monitors, Organizational, presentations, pricing, Problem Resolution, Processes, Project Management, requirement, research, Scripts, space
+planning, Time Management, Treasury, verbal communication skills, Visio, Visual Basic, written</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Business Analyst</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+SOFTWARE QUALITY ASSURANCE ANALYST II
+Career Overview
+12 years of experience in Software Quality Assurance requirements analysis, test planning, creating test cases, and test process coordination
+Experienced with functional, end to end, regression and user acceptance testing of Web based and Client Server interfaces Familiar with the
+Waterfall and Agile SDLC 7 years experience in customer support/service and handling escalated issues 5 years of running formal training and
+development programs for system users Advanced Windows OS and MS Office applications user/troubleshooting skills Ability to learn new
+software very quickly Able to handle multiple projects Take ownership attitude Flexible team player
+Qualifications
+Microsoft Excel/Word/Outlook/Access/Powerpoint/Frontpage, Windows 7/XP/2k, DOS, setting up/troubleshooting hardware/software, Mac,
+Internet, Test Director/Quality Center, Ontime, Zendesk, SharePoint, and basic office equipment
+Work Experience
+Software Quality Assurance Analyst II Jan 2012 to Current 
+Company Name ï¼​ City , State
+Work Environment: Agile, Windows based, Acuity Electronic Health Record System suite testing and administration, Ontime.com used for
+incident/bug reporting.
+T-SQL used to query/insert/update SQL DB to verify input/output of test scenarios.
+WinAutomation and TestComplete used for automated testing.
+Application software testing from local machines and Cloud Share environments.
+Excel and Word extensively used for creation of project documentation Responsible for analyzing the requirements and testing all modules
+of the Electronic Health Record (EHR) System including Patient, Company, Provider, Referrals, Collaborators, Utilization
+Management\Authorizations, Care Plans, Assessments, Tasks, Notes and any other modules that require testing.
+Testing of the Implementation process from one version of an EHR to another appropriately mapping data from the source database to the
+destination database.
+Creating , maintaining and testing user and group profiles confirming the appropriate access to the medical system Updating application
+software by defining/coding existing field properties or creating special user fields to fit the appropriate workflow to be tested based on
+customer needs.
+Document test cases, procedures and automation scripts and keeping them updated for each system release Effectively track testing
+progress using Ontime.com for tracking and assigning defects Responsible for Database loads, test environment set-up, FTP of application
+files and workstation preparation on Cloud Share environments Work with application programmer with system defects or analysis of
+project features Perform functional, regression, and ad-hoc testing on all assigned EHR projects.
+User Support Specialist II, Payments Specialist Jan 2011 to Jan 2012 
+Company Name ï¼​ City , State
+Call Center, Macintosh based, ZenDesk ticketing software used to track user incidents Troubleshoot user issues with Airbnb.com website
+navigation and services, such as user account maintenance, payment processing and billing analysis, as well as very complex financial and
+non financial disputes between users including customer safety issues Respond professionally to any escalated calls and support level I
+agents with urgent calls Take effective notes on user accounts through a ticketing system Thorough follow through of each call ensuring
+customer/user satisfaction.
+Test Execution Manager Jan 2006 to Jan 2010 
+Company Name ï¼​ City , State
+Work Environment: Matrix team structure/Team Lead, Windows based, Quality Center used for test case and bug/incident reporting.
+Excel and Word extensively used for project document creation and SharePoint used for document management/sharing, PowerPoint used
+for meeting facilitation, Managed PC lab for testers including ordering and completing hardware/software set up and hands on
+troubleshooting of systems test environment.
+Responsible for managing a team of onshore and offshore testers during the System Integration Test phase of the software development life
+cycle for the CA Banking Center New Accounts and Teller Platforms.
+Provided work estimates and ensured each project is efficiently staffed with testers to complete the project on time and on budget.
+Review, provide feedback and approve all test plans and scripts submitted by Test Analysts Work as a team member to accurately define
+the business requirements for new products for customers or system changes before the product or system change rollout.
+Identify all system functions and processes that may be affected by each project Provide meeting representation on all banking center
+platform projects.
+Manage end to end, user acceptance and production certification testing Represent the end user in design, development, testing and
+implementation of changes to existing systems environments for CA Banking Centers.
+In charge of the training and development of new test analysts brought on board to test the CA banking center new accounts system.
+Created and lead training classes in a formal setting in the test lab or virtually over the web for users.
+Responsible for ordering the appropriate hardware and software for the test lab for the test analysts and production lab for the
+implementation team.
+Software Test Analyst Jan 2000 to Jan 2006 
+Company Name ï¼​ City , State
+Work Environment: Matrix team structure, Windows based, Quality Center used for test case and bug/incident reporting, Excel and Word
+extensively used for project document creation, Visio used for workflow charting and use cases.
+Managed PC lab for testers including ordering and completing hardware/software set up and hands on troubleshooting of systems test
+environment Responsible for identifying test scenarios from business requirements and creating test plans, scripts, executing scripts, and
+documenting test results based on the requirements Effectively track testing progress using Quality Center for tracking scripts and assigning
+defects Work with technical staff ensuring proper tests are being run, data is conditioned and resolving issues Perform Black Box functional,
+regression, and ad-hoc testing on assigned projects Maintained the test lab ensured appropriate software and hardware were up to date
+with department units we tested for Created and kept track of user access to test and production servers creating the appropriate access
+levels for contracted and non contracted staff Owner of production data including reconciling account balances of all production level bank
+accounts lent out for implementation testing.
+Internal Operations Analyst Jan 1999 to Jan 2000 
+Company Name ï¼​ City , State
+Call Center, Windows based, high call volume, used proprietary software to query databases for common user issues.
+Research and respond to telephone inquiries regarding bank policy and procedures from banking centers and various other units.
+Identify and resolve operational, software application, new account, sales, and service related issues.
+Sr. Operations Officer Jan 1998 to Jan 1999 
+Company Name ï¼​ City , State
+Work Environment: Office setting, Windows based, extensive account reconciliation tasks and record keeping of dollars coming in and out
+of the department, PC maintenance and user account troubleshooting.
+Controller of incoming Bank of America misdirected wire account for corporate clients.
+Properly identify funds in the amounts of billions of dollars which were directed to this account in order to reconcile the account.
+Also kept accurate logs of all wires that passed through the section.
+Worked as on-site desktop support for the department during upgrade to Windows 98.
+Helped IT team with hardware and software installations, password creation/resets and conducted user training sessions for peers.
+Money Transfer Customer Liaison Jan 1997 to Jan 1998 
+Company Name ï¼​ City , State
+Call Center, Windows based, high call volume from the general public and other internal units, basic record keeping of tasks to track
+transactions.
+Responsible for taking customer wire transfer requests over the telephone.
+Ensured to properly identify the customer and account relationship in order to transmit funds and collect fees.
+Amended or canceled wire transfers when necessary.
+Provided excellent customer service.
+Customer Service Representative Jan 1995 to Jan 1997 
+Company Name ï¼​ City , State
+Work Environment: Retail Banking Center, Windows based, general public interaction.
+Processed deposits for various accounts.
+Cashed checks, sold cashier's checks, traveler's checks, and savings bonds.
+Balanced daily.
+Sold checking, savings, time deposit and other bank products.
+Education and Training
+BS , Computer Information Systems 2004 Golden Gate University ï¼​ City , State Computer Information Systems
+AAS , Computer Technology 2002 Heald College ï¼​ City , State Computer Technology
+AAS , Electronics Technology 2001 Heald College ï¼​ City , State Electronics Technology
+Certificate Health Care Information Technology 2013 Cosumnes River College ï¼​ City , State
+Skills
+account reconciliation, ad, Agile, automation, banking, basic, billing, bonds, budget, Call Center, cashier, com, CA, hardware, Controller, clients,
+excellent customer service, databases, Database, document management, documentation, DOS, features, financial, Frontpage, FTP, functional,
+funds, Information Technology, Team Lead, Notes, Mac, Macintosh, managing, meeting facilitation, Access, Microsoft Excel, Excel, Office,
+Outlook, PowerPoint, SharePoint, Windows, 2k, Windows 98, Windows 7/XP, Word, navigation, office equipment, DB, payment processing,
+PC maintenance, processes, coding, programmer, progress, Quality, reconciling, record keeping, reporting, Research, Retail, safety, sales,
+servers, scripts, software development, software testing, SQL, System Integration, desktop support, user training, telephone, Test Director, T-
+SQL, Troubleshoot, troubleshooting, upgrade, Visio, website, workflow</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Business Analyst</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6">
+        <v>98</v>
+      </c>
+      <c r="B6" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+MANAGER, ADVISORY, PERFORMANCE IMPROVEMENT
+Career Overview
+Experienced Solution Architect and System z Mainframe Technology Evangelist with over 12 years of IT industry experience focusing on large
+Banking &amp; Financial Services and Government clients across ASEAN region. Proven record of constantly delivering high performance and result
+oriented professional with exceptional management and consultative selling skills. Demonstrated ability to work independently or as a team player
+in various projects.
+Fast Learner â€“ Good Analytical - Innovative - Goal-Oriented - Flexible
+Recent Accomplishments
+Over-achieving the ASEAN sales goals for IBM software every year by closing high values deals e.g. Core system modernization,
+integrations and new workload for banking and government clients and awarded the IBM Hundred Percent Achievement Club.
+Awarded the Sales Eminence Award for being the top high performer by demonstrating technical leadership in delivering new and complex
+high quality solution to clients in response to varying business requirements to many large customers in ASEAN resulting in various high
+value deals closure and growing IBM solution footprint in ASEAN.
+Consistent Top High Performance rating every year in IBM.
+Awarded the Outstanding Technical Achievement Award for outstanding competitive wins with IBM solution including competitive takeout
+in various accounts ASEAN.
+Achieved the IBM Certified IT Specialist certification in 2012.
+Able to build long term client relationship and became trusted adviser to clients and has engaged with IT and C-level leaders to influence
+clients to adopt IBM solutions leading to improved and successful client in meeting business needs. Successful projects including new Core
+system modernization and integration, replacement and revamp in addition to various banking and government new business initiatives.
+Work Experience
+10/2014 to Current
+Manager, Advisory, Performance Improvement Company Name ï¼​ City , State
+GST implementation project in RHB Group in Malaysia
+05/2008 to 10/2014
+Client Solution Architect, IBM Software Group, ASEAN Company Name ï¼​ City , State
+Focus on driving new solution/workload in key account for sales closure by working with clients to understand their business requirements and
+propose IT solutions to address them as well as oversee the delivery of the proposed solution. Provides overall technical responsibilities for the
+success of the solution design and construction specializing in enterprise modernization and integration of legacy systems and middleware solutions
+like ESB, BPM, Cloud Computing and Mobility for Financial Services and Government customers across the ASEAN region. Proven record of
+closing high value deals in large accounts with consistent year-to-year revenue growth for IBM Software.
+Experience in working with clients to run presentations/demos/POCs and workshops including performance assessment, system healthcheck,
+integration architecture workshops by analyzing and developing standards/recommendations and architectural governance and best practices for
+customers to improve their core system availability and optimization for cost savings resulting in many large deals closure.
+Specialties: SOA, Enterprise Application Integration (EAI), BPM, Cloud, Mobility, WebSphere, Rational Enterprise Modernization, DevOps,
+Core Banking, Capacity Planning and System z upgrade, System z (Mainframe) OS - z/OS, Linux, CICS and Solutions Architecture
+05/2007 to 05/2008
+Core Banking Consultant Company Name ï¼​ City , State
+Provided technical leadership on Core Banking business processes and requirement for success of the development, maintenance and
+implementation of ICBA for banking customers. ICBA is a full fledged web-based core banking systems utilizing open systems technologies like
+J2E and Oracle and IBM solutions.
+Designed enhancement and prepared functional requirements specification and ensured solution delivery based on banking systems' best practices
+and provide support to banking customers in area of Deposit/ Trade Finance/ Treasury/ Remittances/ GL modules of ICBA
+06/2003 to 01/2007
+System Analyst Company Name ï¼​ City , State
+Responsible for developing and application design of new projects and maintenance of Core Banking system running on the mainframe system.
+Specialized in Core Payment Systems â€“ SWIFT, RENTAS, Interbank GIRO, and Inward and Outward Cheque Clearing. Implemented new
+major projects include Foreign Bills Collection / Mobile Banking. Team lead for new Auto Payments System project. Worked on projects and
+service modification for both online and batch applications. Tasks involved were analysis, research, estimation, coding, testing and documentation
+with strict adherence to system standards.
+Part of the New Core Banking Replacement project team. Constantly evaluates different vendors system and functionality. Knowledgeable in new
+technologies i.e. SOA, integration of multiplatform systems, best practices in banking systems. Involved in gathering requirements and evaluation in
+RFI and RFP process of New Core Banking replacement project involving proposal from i-Flex / Infosys / TATA / Temenos and Silverlake.
+Worked closely with user departments, troubleshooting problems and designing new or improved applications and initiated problem determination
+analysis model to identify problems and provide solutions on Core system.
+Constantly reviewed users specifications, analyzed and responded to their business requirements by preparing solutions. Constantly performing
+study and research and providing innovative ideas and new technology advances to improve payment systems in area of flexibility, scalability and
+connectivity, process flow of systems and for system and application tuning. My knowledge and experience of various IBM and CA tools and
+MVS Utilities-DFSORT/ICETOOL, DFSMS) allowed me to be a major contributor toward the success of Maybank IT initiatives to improve
+time to market for new product implementation.
+Organized and coordinate trainings for Maybank Technical staffs and managed focus groups to perform study and research core banking
+applications. Staff productivity, exposure and learning have been improved.
+Skills
+11 years of experience in System z and distributed applications development on z/OS, Programming languages : COBOL, PL/I, PL/SQL , EGL,
+Databases - DB2, Oracle, IDMS/ADSO, MQ and Enterprise Connectivity - ESB, Message Broker, Business rules and events, Business Process
+Management, Mobile and Cloud, Middleware - WAS, CICS
+Specialize in IBM software focusing on IBM Rational and WebSphere solutions â€“ RDz, RAA, RBD-EGL, RTCz, Quality Management and
+skilled in area of CICS Modernization , Web 2.0, SOA, Mobility, BPM, Business Rules Management
+Education and Training
+2003
+Bachelor of Science in Computer Science : Majoring in Software Engineering University of Malaya ï¼​ State , Malaysia
+Graduated with CGPA of 3.43 of 4.00 with Dean's List</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Business Analyst</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7">
+        <v>107</v>
+      </c>
+      <c r="B7" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+BANKING
+Summary
+Hands-on, client-oriented banking professional who implements creative investment strategies and is dedicated to continuous improvement.
+Entry level banking focused on applying excellent research skills and writing ability to a position in business management.Enthusiastic business
+major with excellent communication skills and strong motivation to succeed.
+Highlights
+Cash handling
+Financial analysis
+MS Excel expert
+Analytical
+Financial reporting
+Loan operations
+Managing multiple priorities
+Identifying risks
+Spanish speaking
+MS Office proficiency
+Team leadership
+Excellent communication skills
+Strong lead development skills
+Business negotiation
+Accomplishments
+Client Interface Â 
+Collaborated with prospective clients to prepare efficient product marketing strategies and drive business development.
+Experience
+Company Name City , State Banking 11/2016
+Opened new customer accounts, including checking, savings and lines of credit.Balanced daily cash deposits and bank vault inventory with a zero
+error rate.Processed cash withdrawals.Researched and resolved customer issues on personal savings, checking and lines of credit
+accounts.Delivered prompt, accurate and excellent customer service.Researched banking guidelines and statutory requirements to stay updated on
+new laws and applications.
+Company Name City , State Banking Employee 05/2014 to 08/2015
+Opened new customer accounts, including checking, savings and lines of credit.Balanced daily cash deposits and bank vault inventory with a zero
+error rate.Processed cash withdrawals.Researched and resolved customer issues on personal savings, checking and lines of credit
+accounts.Delivered prompt, accurate and excellent customer service.Researched banking guidelines and statutory requirements to stay updated on
+new laws and applications.
+Company Name City , State Intern 06/2013 to 09/2013
+Managing and editing the companys online area and the educative software (Moodle). Developing and preparing accounting, statistics and Office
+subject papers (Word, Excel,PowerPoint).
+Company Name City , State Banking intern 06/2012 to 09/2012
+Opened new customer accounts, including checking, savings and lines of credit.Balanced daily cash deposits and bank vault inventory with a zero
+error rate.Processed cash withdrawals.Researched and resolved customer issues on personal savings, checking and lines of credit
+accounts.Delivered prompt, accurate and excellent customer service.Researched banking guidelines and statutory requirements to stay updated on
+new laws and applications.
+Education
+Master of Science : International Trade 2014 Universidad Carlos III de Madrid , City , State , Spain
+International Trade Policies, international trade laws,.
+Bachelor of Science : Business Administration and Direction 2013 Universidad PÃºblica de Navarra , City , State , Spain
+Skills
+Sales Software: Salesforce.com, TapScan
+Public Relations Software: Bacon's Mediasource, Factiva
+Desktop Publishing Software: Photoshop, Illustrator, HTML</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Business Analyst</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8">
+        <v>113</v>
+      </c>
+      <c r="B8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+TERADATA SENIOR ASSOCIATE CONSULTANT
+Summary
+Highly dependable Teradata Database Engineer successful at troubleshooting and debugging. Supportive and enthusiastic team player dedicated to
+streamlining processes and efficiently resolving project issues.
+Highlights
+Teradata BTEQ,Fast Load,PL/SQL
+Oracle
+Basic Unix
+Autosys Job Scheduler using JIL
+SQL Query writing
+SQL Performance Tuning
+BTEQ
+Accomplishments
+Developed custom database designs which is used for strong and fast analytical report for wider audience across the organization.
+Experience
+Teradata Senior Associate Consultant Dec 2014 to Current 
+Company Name ï¼​ City , State 
+Project Description :
+iOS Mobile Application for Business Analytics Reporting This project aims at developing an Oracle and Teradata layers for pushing the data to
+iOS Mobile Application.
+Responsibilities:
+Performed data analysis and gathered columns metadata of source systems for understanding requirement feasibility analysis.
+Worked on optimizing and tuning the Teradata and Oracle views and SQL's to improve the performance of batch and response time of data
+for users
+Implement the code changes through change management tools.
+Worked closely with business users to come up with detailed solution approach design documents.
+Used Teradata utilities like Bteq to build Teradata procedures.
+Provided initial capacity and growth forecast in terms of Space, CPU for the applications by gathering the details of volumes expected from
+Business.
+Prepared low level technical design document and participated in build/ review of the BTEQ Scripts.
+Provided support during the system test, Product Integration Testing and UAT.
+Coordination of all the offshore development from onsite from assigning the job till code delivery and signoff.
+Verified if implementation is done as expected.
+Done the impact assessment in terms of schedule changes, dependency impact, code changes for various change requests on the existing
+Data Warehouse applications that running in Production environment.
+Provided quick production fixes and proactively involved in fixing production support issues.
+Liaised between different implementation groups (Both source and target systems) and monitored the implementation activities.
+Analyze business requirements, designs and write technical specifications to design/ redesign solutions.
+Coordinate with Configuration management team in code deployments. Environment: Teradata14, Oracle PL/SQL, BTEQ, Basic Unix
+Senior Associate Consultant Mar 2012 to Dec 2014 
+Company Name ï¼​ City , State 
+Project Description :
+Development and maintenance of semantic/downstream layer in a data warehouse for Business user reporting. This project aims at building and
+maintaining a data mart on Enterprise Data warehouse, in order to increase the efficiency of the reporting, support business users in performing,
+more robust analytical reporting and decision making capability.
+Responsibilities :
+Performed data analysis and gathered columns meta data of source systems for understanding requirement feasibility analysis.
+Worked on optimizing and tuning the Teradata views and SQL's to improve the performance of batch and response time of data for users
+Implement the code changes through change management tools.
+Worked closely with subject matter experts to come up with detailed solution approach design documents.
+Used Teradata utilities like Bteq export/import and Fast Load to load data into/out of Teradata database.
+Provided initial capacity and growth forecast in terms of Space, CPU for the applications by gathering the details of volumes expected from
+Business.
+Prepared low level technical design document and participated in build/ review of the BTEQ Scripts, Reviewed Unit Test Plans &amp; System
+Test cases.
+Provided support during the system test, Product Integration Testing and UAT.
+Coordination of all the offshore development from onsite from assigning the job till code delivery and signoff.
+Verified if implementation is done as expected.
+Done the impact assessment in terms of schedule changes, dependency impact, code changes for various change requests on the existing
+Data Warehouse applications that running in Production environment.
+Provided quick production fixes and pro-actively involved in fixing production support issues.
+Liaised between different implementation groups (Both source and target systems) and monitored the implementation activities.
+Analyze business requirements, designs and write technical specifications to design/ redesign solutions.
+Involved in complete software development lifeÂ​cycle(SDLC) including requirements gathering, analysis, design, development, testing,
+implementation and deployment.
+Developed technical design documents (HLD and LLD) based on the functional requirements
+Coordinate with Configuration management team in code deployments.
+Implemented AGILE methodology for our formal delivery. Environment: Teradata14, BTEQ, Basic Unix, Oracle. Â​
+Software Engineer Jan 2009 to Mar 2012 
+Company Name ï¼​ City , State 
+Project Description :
+Data Warehousing Services. Description: Data Warehousing Services (DWS) manages the platform infrastructure hosting data from the Group's
+operational systems providing the capability for users or operational systems to query and extract this information as required. DWS manages the
+whole end to end change and service lifecycle including build, schedule and infrastructure support, service desk, risk and compliance and service
+and finance management. The goals of the Warehouse are to: Â​ Provide a single version of the truth Â​ Empower users to find out new information
+about their business for themselves Â​ Provide an integrated database model with common definitions regardless of the source of the data. Data
+from various source systems is fed into the EDW (Enterprise Data Warehouse).
+Responsibilities:
+Actively involved in enhancing the Data Warehousing Application wherein all small, Teradata,
+Prepared high level design document for developers and participated in review / build of the BTEQ, Scripts, Fast loads, Multi load and
+JCLs, Prepared/Reviewed Unit Test Plans &amp; System Test cases
+Worked closely with Business Users and analysts.
+Worked on BTEQ, Fast load, and Fast export for loading data from Oracle to Teradata.
+Responsible for overseeing the Quality procedures related to the project
+Involved in code reviews and strictly followed best practices.
+Design, develop, and test complex Teradata BTEQ Scripts
+Involved in complete software development lifeÂ​cycle(SDLC) Performed unit testing on the source code.
+Used to interact with testing team to ensure appropriate testing is performed and with Configuration team for code deployments and with
+technical writers to ensure manuals are in Synch with the developed software Environment: Teradata, Main Frame, BTEQ, Fast Load, Fast
+Export.
+Education
+Bachelor of Technology , Computer and Science Engineering JNTU Bachelor of Technology in Computer and Science Engineering, India JNTU
+Percentage: 71.68
+Skills
+Data Warehouse knowledge, Database design, Oracle SQL, SDLC, Teradata,SQL Testing, Unit Testing, Business Requirements Gathering,
+Change Management planning, Configuration Management planning, Data Analysis, Data Mart Development, Code Deployment, Feasibility
+Analysis, Integration Testing, Application Maintenance,Meta data Analysis,Teradata PL/SQL,Teradata BTEQ,Teradata Fastload,Requirements
+Gathering, Semantic database design, Technical Design, Technical Specifications documents, UAT,Basic UNIX</v>
+      </c>
+      <c r="C8" t="str">
         <v>Business Analyst</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
   </ignoredErrors>
 </worksheet>
 </file>